--- a/配置表/MapItem.xlsx
+++ b/配置表/MapItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17800"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
+  <si>
+    <t>##var</t>
+  </si>
   <si>
     <t>主键id int类型</t>
   </si>
@@ -412,12 +415,21 @@
     <t>typeName</t>
   </si>
   <si>
+    <t>##type</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
     <t>装饰物名字</t>
   </si>
   <si>
@@ -427,10 +439,13 @@
     <t>图片</t>
   </si>
   <si>
-    <t>预制体</t>
-  </si>
-  <si>
-    <t>占位列表</t>
+    <t>预制体ID</t>
+  </si>
+  <si>
+    <t>占位列表X</t>
+  </si>
+  <si>
+    <t>占位列表Y</t>
   </si>
   <si>
     <t>是否自动匹配规则</t>
@@ -442,18 +457,12 @@
     <t>建筑</t>
   </si>
   <si>
-    <t>3X2</t>
-  </si>
-  <si>
     <t>是</t>
   </si>
   <si>
     <t>木屋</t>
   </si>
   <si>
-    <t>2X3</t>
-  </si>
-  <si>
     <t>葡萄酒作坊</t>
   </si>
   <si>
@@ -463,16 +472,10 @@
     <t>营地</t>
   </si>
   <si>
-    <t>3X3</t>
-  </si>
-  <si>
     <t>椰子树</t>
   </si>
   <si>
     <t>树木</t>
-  </si>
-  <si>
-    <t>1X1</t>
   </si>
   <si>
     <t>松树</t>
@@ -1421,7 +1424,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1447,19 +1450,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2003,26 +2003,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="31.1818181818182" customWidth="1"/>
-    <col min="2" max="2" width="28.0181818181818" customWidth="1"/>
-    <col min="3" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="6" width="30.5363636363636" customWidth="1"/>
-    <col min="7" max="7" width="10"/>
+    <col min="2" max="2" width="31.1818181818182" customWidth="1"/>
+    <col min="3" max="3" width="28.0181818181818" customWidth="1"/>
+    <col min="4" max="4" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="35.7272727272727" customWidth="1"/>
+    <col min="6" max="6" width="8.72727272727273" customWidth="1"/>
+    <col min="7" max="7" width="6.27272727272727" customWidth="1"/>
+    <col min="8" max="8" width="30.5363636363636" customWidth="1"/>
+    <col min="9" max="9" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A1" s="11" t="s">
+    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
@@ -2034,923 +2037,1038 @@
       <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="9"/>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12"/>
       <c r="J1" s="12"/>
-    </row>
-    <row r="2" s="10" customFormat="1" ht="16.5" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="14" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="12"/>
+    </row>
+    <row r="2" s="10" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:11">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="D2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:13">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:14">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:12">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14">
-        <v>1</v>
-      </c>
-      <c r="C4" s="14">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-    </row>
-    <row r="5" ht="16.5" spans="1:12">
-      <c r="A5" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="E4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16">
+      <c r="F4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" ht="16.5" spans="2:14">
+      <c r="B5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14">
         <v>100101</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-    </row>
-    <row r="6" ht="16.5" spans="1:12">
-      <c r="A6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16">
+      <c r="F5" s="14">
+        <v>3</v>
+      </c>
+      <c r="G5" s="14">
+        <v>2</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:14">
+      <c r="B6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14">
         <v>100102</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-    </row>
-    <row r="7" ht="16.5" spans="1:12">
-      <c r="A7" s="16" t="s">
+      <c r="F6" s="14">
+        <v>2</v>
+      </c>
+      <c r="G6" s="14">
+        <v>3</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:14">
+      <c r="B7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14">
         <v>100103</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-    </row>
-    <row r="8" ht="16.5" spans="1:12">
-      <c r="A8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16">
+      <c r="F7" s="14">
+        <v>2</v>
+      </c>
+      <c r="G7" s="14">
+        <v>3</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" ht="16.5" spans="2:14">
+      <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14">
         <v>100104</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-    </row>
-    <row r="9" ht="16.5" spans="1:12">
-      <c r="A9" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16">
+      <c r="F8" s="14">
+        <v>2</v>
+      </c>
+      <c r="G8" s="14">
+        <v>3</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:14">
+      <c r="B9" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14">
         <v>100105</v>
       </c>
-      <c r="E9" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-    </row>
-    <row r="10" ht="16.5" spans="1:12">
-      <c r="A10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16">
+      <c r="F9" s="14">
+        <v>3</v>
+      </c>
+      <c r="G9" s="14">
+        <v>3</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:14">
+      <c r="B10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14">
         <v>100201</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-    </row>
-    <row r="11" ht="16.5" spans="1:12">
-      <c r="A11" s="17" t="s">
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:14">
+      <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14">
         <v>100202</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-    </row>
-    <row r="12" ht="16.5" spans="1:12">
-      <c r="A12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16">
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:14">
+      <c r="B12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14">
         <v>100203</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-    </row>
-    <row r="13" ht="16.5" spans="1:12">
-      <c r="A13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="F12" s="15">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:14">
+      <c r="B13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16">
+      <c r="C13" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14">
         <v>100301</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="16"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-    </row>
-    <row r="14" ht="16.5" spans="1:12">
-      <c r="A14" s="17" t="s">
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" ht="16.5" spans="2:14">
+      <c r="B14" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14">
         <v>100302</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-    </row>
-    <row r="15" ht="16.5" spans="1:12">
-      <c r="A15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16">
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" ht="16.5" spans="2:14">
+      <c r="B15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14">
         <v>100303</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-    </row>
-    <row r="16" ht="16.5" spans="1:12">
-      <c r="A16" s="17" t="s">
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:14">
+      <c r="B16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14">
+        <v>100304</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:14">
+      <c r="B17" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14">
+        <v>100305</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:14">
+      <c r="B18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16">
-        <v>100304</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-    </row>
-    <row r="17" ht="16.5" spans="1:12">
-      <c r="A17" s="17" t="s">
+      <c r="C18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14">
+        <v>100306</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:14">
+      <c r="B19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16">
-        <v>100305</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-    </row>
-    <row r="18" ht="16.5" spans="1:12">
-      <c r="A18" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16">
-        <v>100306</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:12">
-      <c r="A19" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16">
+      <c r="C19" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14">
         <v>100307</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-    </row>
-    <row r="20" ht="16.5" spans="1:12">
-      <c r="A20" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16">
+      <c r="F19" s="15">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:14">
+      <c r="B20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14">
         <v>100308</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-    </row>
-    <row r="21" ht="16.5" spans="1:12">
-      <c r="A21" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16">
+      <c r="F20" s="15">
+        <v>1</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="14"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:14">
+      <c r="B21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14">
         <v>100309</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-    </row>
-    <row r="22" ht="16.5" spans="1:12">
-      <c r="A22" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="17" t="s">
+      <c r="F21" s="15">
+        <v>1</v>
+      </c>
+      <c r="G21" s="16">
+        <v>1</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="14"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:14">
+      <c r="B22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16">
+      <c r="C22" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14">
         <v>100401</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-    </row>
-    <row r="23" ht="16.5" spans="1:12">
-      <c r="A23" s="17" t="s">
+      <c r="F22" s="15">
+        <v>1</v>
+      </c>
+      <c r="G22" s="16">
+        <v>1</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="14"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:14">
+      <c r="B23" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14">
         <v>100402</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="16"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:12">
-      <c r="A24" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16">
+      <c r="F23" s="15">
+        <v>1</v>
+      </c>
+      <c r="G23" s="16">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="14"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:14">
+      <c r="B24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14">
         <v>100403</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="16"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-    </row>
-    <row r="25" ht="16.5" spans="1:12">
-      <c r="A25" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16">
+      <c r="F24" s="15">
+        <v>1</v>
+      </c>
+      <c r="G24" s="16">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="14"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:14">
+      <c r="B25" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14">
         <v>100404</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="16"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-    </row>
-    <row r="26" ht="16.5" spans="1:12">
-      <c r="A26" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16">
+      <c r="F25" s="15">
+        <v>1</v>
+      </c>
+      <c r="G25" s="16">
+        <v>1</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I25" s="14"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:14">
+      <c r="B26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14">
         <v>100405</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="16"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-    </row>
-    <row r="27" ht="16.5" spans="1:12">
-      <c r="A27" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16">
+      <c r="F26" s="15">
+        <v>1</v>
+      </c>
+      <c r="G26" s="16">
+        <v>1</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="14"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:14">
+      <c r="B27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14">
         <v>100406</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="16"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-    </row>
-    <row r="28" ht="16.5" spans="1:12">
-      <c r="A28" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16">
+      <c r="F27" s="15">
+        <v>1</v>
+      </c>
+      <c r="G27" s="16">
+        <v>1</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27" s="14"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:14">
+      <c r="B28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14">
         <v>100407</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-    </row>
-    <row r="29" ht="16.5" spans="1:12">
-      <c r="A29" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16">
+      <c r="F28" s="15">
+        <v>1</v>
+      </c>
+      <c r="G28" s="16">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="14"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+    </row>
+    <row r="29" ht="16.5" spans="2:14">
+      <c r="B29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14">
         <v>100408</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="16"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-    </row>
-    <row r="30" ht="16.5" spans="1:12">
-      <c r="A30" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16">
+      <c r="F29" s="15">
+        <v>1</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I29" s="14"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+    </row>
+    <row r="30" ht="16.5" spans="2:14">
+      <c r="B30" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14">
         <v>100409</v>
       </c>
-      <c r="E30" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="16"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-    </row>
-    <row r="31" ht="16.5" spans="1:12">
-      <c r="A31" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16">
+      <c r="F30" s="15">
+        <v>1</v>
+      </c>
+      <c r="G30" s="16">
+        <v>1</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="14"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+    </row>
+    <row r="31" ht="16.5" spans="2:14">
+      <c r="B31" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14">
         <v>100410</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="16"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-    </row>
-    <row r="32" ht="16.5" spans="1:12">
-      <c r="A32" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="17" t="s">
+      <c r="F31" s="15">
+        <v>1</v>
+      </c>
+      <c r="G31" s="16">
+        <v>1</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I31" s="14"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+    </row>
+    <row r="32" ht="16.5" spans="2:14">
+      <c r="B32" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16">
+      <c r="C32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14">
         <v>100501</v>
       </c>
-      <c r="E32" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="16"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-    </row>
-    <row r="33" ht="16.5" spans="1:12">
-      <c r="A33" s="17" t="s">
+      <c r="F32" s="15">
+        <v>1</v>
+      </c>
+      <c r="G32" s="16">
+        <v>1</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="14"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+    </row>
+    <row r="33" ht="16.5" spans="2:14">
+      <c r="B33" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16">
+      <c r="D33" s="14"/>
+      <c r="E33" s="14">
         <v>100502</v>
       </c>
-      <c r="E33" s="17">
-        <v>22</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" s="16"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-    </row>
-    <row r="34" ht="16.5" spans="1:12">
-      <c r="A34" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16">
+      <c r="F33" s="15">
+        <v>2</v>
+      </c>
+      <c r="G33" s="16">
+        <v>2</v>
+      </c>
+      <c r="H33" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="14"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+    </row>
+    <row r="34" ht="16.5" spans="2:14">
+      <c r="B34" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14">
         <v>100503</v>
       </c>
-      <c r="E34" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F34" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="16"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-    </row>
-    <row r="35" ht="16.5" spans="1:12">
-      <c r="A35" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16">
+      <c r="F34" s="15">
+        <v>1</v>
+      </c>
+      <c r="G34" s="16">
+        <v>1</v>
+      </c>
+      <c r="H34" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="14"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+    </row>
+    <row r="35" ht="16.5" spans="2:14">
+      <c r="B35" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14">
         <v>100504</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="16"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-    </row>
-    <row r="36" ht="16.5" spans="1:12">
-      <c r="A36" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16">
+      <c r="F35" s="15">
+        <v>1</v>
+      </c>
+      <c r="G35" s="16">
+        <v>1</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I35" s="14"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+    </row>
+    <row r="36" ht="16.5" spans="2:14">
+      <c r="B36" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14">
         <v>100505</v>
       </c>
-      <c r="E36" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="16"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-    </row>
-    <row r="37" ht="16.5" spans="1:12">
-      <c r="A37" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="17" t="s">
+      <c r="F36" s="15">
+        <v>1</v>
+      </c>
+      <c r="G36" s="16">
+        <v>1</v>
+      </c>
+      <c r="H36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="14"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+    </row>
+    <row r="37" ht="16.5" spans="2:14">
+      <c r="B37" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16">
+      <c r="C37" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14">
         <v>100601</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F37" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="16"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:12">
-      <c r="A38" s="17" t="s">
+      <c r="F37" s="15">
+        <v>1</v>
+      </c>
+      <c r="G37" s="16">
+        <v>1</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="14"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+    </row>
+    <row r="38" ht="16.5" spans="2:14">
+      <c r="B38" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16">
+      <c r="D38" s="14"/>
+      <c r="E38" s="14">
         <v>100602</v>
       </c>
-      <c r="E38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="16"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-    </row>
-    <row r="39" ht="16.5" spans="1:12">
-      <c r="A39" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16">
+      <c r="F38" s="15">
+        <v>1</v>
+      </c>
+      <c r="G38" s="16">
+        <v>1</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="14"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+    </row>
+    <row r="39" ht="16.5" spans="2:14">
+      <c r="B39" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14">
         <v>100603</v>
       </c>
-      <c r="E39" s="17">
-        <v>22</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="16"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-    </row>
-    <row r="40" ht="16.5" spans="1:12">
-      <c r="A40" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16">
+      <c r="F39" s="15">
+        <v>2</v>
+      </c>
+      <c r="G39" s="16">
+        <v>2</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="14"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+    </row>
+    <row r="40" ht="16.5" spans="2:14">
+      <c r="B40" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14">
         <v>100604</v>
       </c>
-      <c r="E40" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F40" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="16"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-    </row>
-    <row r="41" ht="16.5" spans="1:12">
-      <c r="A41" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16">
+      <c r="F40" s="15">
+        <v>1</v>
+      </c>
+      <c r="G40" s="16">
+        <v>1</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="14"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+    </row>
+    <row r="41" ht="16.5" spans="2:14">
+      <c r="B41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14">
         <v>100605</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="16"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-    </row>
-    <row r="42" ht="16.5" spans="1:12">
-      <c r="A42" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16">
+      <c r="F41" s="15">
+        <v>1</v>
+      </c>
+      <c r="G41" s="16">
+        <v>1</v>
+      </c>
+      <c r="H41" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="14"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+    </row>
+    <row r="42" ht="16.5" spans="2:14">
+      <c r="B42" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14">
         <v>100606</v>
       </c>
-      <c r="E42" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="16"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-    </row>
-    <row r="43" ht="16.5" spans="1:12">
-      <c r="A43" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="17" t="s">
+      <c r="F42" s="15">
+        <v>1</v>
+      </c>
+      <c r="G42" s="16">
+        <v>1</v>
+      </c>
+      <c r="H42" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="14"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+    </row>
+    <row r="43" ht="16.5" spans="2:14">
+      <c r="B43" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="16">
+      <c r="C43" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="15"/>
+      <c r="E43" s="14">
         <v>100607</v>
       </c>
-      <c r="E43" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="16"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
+      <c r="F43" s="15">
+        <v>1</v>
+      </c>
+      <c r="G43" s="16">
+        <v>1</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="14"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G6">
+  <conditionalFormatting sqref="I6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2972,206 +3090,206 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:22">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3239,7 +3357,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3284,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3331,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3378,7 +3496,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3425,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3472,7 +3590,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3519,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/MapItem.xlsx
+++ b/配置表/MapItem.xlsx
@@ -33,7 +33,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="J3" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="143">
   <si>
     <t>##var</t>
   </si>
@@ -451,6 +451,9 @@
     <t>是否自动匹配规则</t>
   </si>
   <si>
+    <t>Thatched cottage</t>
+  </si>
+  <si>
     <t>茅草屋</t>
   </si>
   <si>
@@ -460,96 +463,183 @@
     <t>是</t>
   </si>
   <si>
+    <t>Log cabin</t>
+  </si>
+  <si>
     <t>木屋</t>
   </si>
   <si>
+    <t>Wine workshop</t>
+  </si>
+  <si>
     <t>葡萄酒作坊</t>
   </si>
   <si>
+    <t>Farmers' market</t>
+  </si>
+  <si>
     <t>农贸市场</t>
   </si>
   <si>
+    <t>Campsite</t>
+  </si>
+  <si>
     <t>营地</t>
   </si>
   <si>
+    <t>Palm tree</t>
+  </si>
+  <si>
     <t>椰子树</t>
   </si>
   <si>
     <t>树木</t>
   </si>
   <si>
+    <t>Pine tree</t>
+  </si>
+  <si>
     <t>松树</t>
   </si>
   <si>
+    <t>Bamboo</t>
+  </si>
+  <si>
     <t>竹子</t>
   </si>
   <si>
+    <t>Gravel path</t>
+  </si>
+  <si>
     <t>石子路</t>
   </si>
   <si>
     <t>道路</t>
   </si>
   <si>
+    <t>Cobblestone path</t>
+  </si>
+  <si>
     <t>大块石子路</t>
   </si>
   <si>
+    <t>Dirt path</t>
+  </si>
+  <si>
     <t>土路</t>
   </si>
   <si>
+    <t>Grey brick path</t>
+  </si>
+  <si>
     <t>砖块路</t>
   </si>
   <si>
+    <t>White sand path</t>
+  </si>
+  <si>
     <t>白色石子路2</t>
   </si>
   <si>
+    <t>Brown ground path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sapphire Brick path </t>
+  </si>
+  <si>
+    <t>Garden brick path</t>
+  </si>
+  <si>
     <t>砖路</t>
   </si>
   <si>
+    <t>Zen garden path</t>
+  </si>
+  <si>
     <t>日本枯山水路</t>
   </si>
   <si>
+    <t>Hedge Fence</t>
+  </si>
+  <si>
     <t>冬青栅栏</t>
   </si>
   <si>
     <t>栅栏</t>
   </si>
   <si>
+    <t xml:space="preserve"> Stone fence</t>
+  </si>
+  <si>
     <t>石头栅栏</t>
   </si>
   <si>
+    <t>Natural wooden fence</t>
+  </si>
+  <si>
     <t>木头栅栏</t>
   </si>
   <si>
+    <t>Flower bed fence</t>
+  </si>
+  <si>
     <t>花坛栅栏</t>
   </si>
   <si>
+    <t>Autumn fence</t>
+  </si>
+  <si>
     <t>秋天栅栏</t>
   </si>
   <si>
+    <t>Wooden fence</t>
+  </si>
+  <si>
     <t>木头栅栏2</t>
   </si>
   <si>
+    <t>Flower vine fence</t>
+  </si>
+  <si>
     <t>花藤栅栏</t>
   </si>
   <si>
+    <t>Brick fence</t>
+  </si>
+  <si>
     <t>石砖栅栏</t>
   </si>
   <si>
+    <t>Mediterranean wooden fence</t>
+  </si>
+  <si>
     <t>木条栅栏</t>
   </si>
   <si>
+    <t>Bamboo fence</t>
+  </si>
+  <si>
     <t>竹子栅栏</t>
   </si>
   <si>
+    <t>Wooden bench</t>
+  </si>
+  <si>
     <t>木质长椅</t>
   </si>
   <si>
     <t>装饰物</t>
   </si>
   <si>
+    <t>Gazebo</t>
+  </si>
+  <si>
     <t>gazebo</t>
   </si>
   <si>
+    <t>Metal door</t>
+  </si>
+  <si>
     <t>metal door</t>
   </si>
   <si>
@@ -578,6 +668,9 @@
   </si>
   <si>
     <t>Gypsophila</t>
+  </si>
+  <si>
+    <t>Cookisland</t>
   </si>
   <si>
     <t>cookisland</t>
@@ -740,7 +833,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,6 +845,18 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Microsoft YaHei UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1294,137 +1399,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1447,16 +1552,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2003,1072 +2120,1193 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="31.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="28.0181818181818" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="35.7272727272727" customWidth="1"/>
-    <col min="6" max="6" width="8.72727272727273" customWidth="1"/>
-    <col min="7" max="7" width="6.27272727272727" customWidth="1"/>
-    <col min="8" max="8" width="30.5363636363636" customWidth="1"/>
-    <col min="9" max="9" width="10"/>
+    <col min="3" max="4" width="28.0181818181818" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="6" max="6" width="35.7272727272727" customWidth="1"/>
+    <col min="7" max="7" width="8.72727272727273" customWidth="1"/>
+    <col min="8" max="8" width="6.27272727272727" customWidth="1"/>
+    <col min="9" max="9" width="30.5363636363636" customWidth="1"/>
+    <col min="10" max="10" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:12">
+    <row r="1" s="9" customFormat="1" ht="16.5" spans="1:13">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" s="10" customFormat="1" ht="16.5" spans="1:12">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" s="10" customFormat="1" ht="16.5" spans="1:13">
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-    </row>
-    <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:13">
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:14">
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="21"/>
+    </row>
+    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:15">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="I4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" ht="16.5" spans="2:14">
-      <c r="B5" s="14" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" ht="17.5" spans="2:15">
+      <c r="B5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14">
+      <c r="D5" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17">
         <v>100101</v>
       </c>
-      <c r="F5" s="14">
+      <c r="G5" s="17">
         <v>3</v>
       </c>
-      <c r="G5" s="14">
+      <c r="H5" s="17">
         <v>2</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="I5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+    </row>
+    <row r="6" ht="17.5" spans="2:15">
+      <c r="B6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-    </row>
-    <row r="6" ht="16.5" spans="2:14">
-      <c r="B6" s="14" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17">
+        <v>100102</v>
+      </c>
+      <c r="G6" s="17">
+        <v>2</v>
+      </c>
+      <c r="H6" s="17">
+        <v>3</v>
+      </c>
+      <c r="I6" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14">
-        <v>100102</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+    </row>
+    <row r="7" ht="17.5" spans="2:15">
+      <c r="B7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17">
+        <v>100103</v>
+      </c>
+      <c r="G7" s="17">
         <v>2</v>
       </c>
-      <c r="G6" s="14">
+      <c r="H7" s="17">
         <v>3</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+    </row>
+    <row r="8" ht="17.5" spans="2:15">
+      <c r="B8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-    </row>
-    <row r="7" ht="16.5" spans="2:14">
-      <c r="B7" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14">
-        <v>100103</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="E8" s="17"/>
+      <c r="F8" s="17">
+        <v>100104</v>
+      </c>
+      <c r="G8" s="17">
         <v>2</v>
       </c>
-      <c r="G7" s="14">
+      <c r="H8" s="17">
         <v>3</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+    </row>
+    <row r="9" ht="17.5" spans="2:15">
+      <c r="B9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-    </row>
-    <row r="8" ht="16.5" spans="2:14">
-      <c r="B8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14">
-        <v>100104</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17">
+        <v>100105</v>
+      </c>
+      <c r="G9" s="17">
+        <v>3</v>
+      </c>
+      <c r="H9" s="17">
+        <v>3</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:15">
+      <c r="B10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17">
+        <v>100201</v>
+      </c>
+      <c r="G10" s="19">
+        <v>1</v>
+      </c>
+      <c r="H10" s="20">
+        <v>1</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="17"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:15">
+      <c r="B11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17">
+        <v>100202</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+    </row>
+    <row r="12" ht="17.5" spans="2:15">
+      <c r="B12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17">
+        <v>100203</v>
+      </c>
+      <c r="G12" s="19">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+    </row>
+    <row r="13" ht="17.5" spans="2:15">
+      <c r="B13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17">
+        <v>100301</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+    </row>
+    <row r="14" ht="17.5" spans="2:15">
+      <c r="B14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17">
+        <v>100302</v>
+      </c>
+      <c r="G14" s="19">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="17"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+    </row>
+    <row r="15" ht="17.5" spans="2:15">
+      <c r="B15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17">
+        <v>100303</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+    </row>
+    <row r="16" ht="17.5" spans="2:15">
+      <c r="B16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17">
+        <v>100304</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1</v>
+      </c>
+      <c r="H16" s="20">
+        <v>1</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="17"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:15">
+      <c r="B17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17">
+        <v>100305</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="20">
+        <v>1</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="17"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:15">
+      <c r="B18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17">
+        <v>100306</v>
+      </c>
+      <c r="G18" s="19">
+        <v>1</v>
+      </c>
+      <c r="H18" s="20">
+        <v>1</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:15">
+      <c r="B19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17">
+        <v>100307</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="20">
+        <v>1</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:15">
+      <c r="B20" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17">
+        <v>100308</v>
+      </c>
+      <c r="G20" s="19">
+        <v>1</v>
+      </c>
+      <c r="H20" s="20">
+        <v>1</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:15">
+      <c r="B21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17">
+        <v>100309</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1</v>
+      </c>
+      <c r="H21" s="20">
+        <v>1</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:15">
+      <c r="B22" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17">
+        <v>100401</v>
+      </c>
+      <c r="G22" s="19">
+        <v>1</v>
+      </c>
+      <c r="H22" s="20">
+        <v>1</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="17"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:15">
+      <c r="B23" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17">
+        <v>100402</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1</v>
+      </c>
+      <c r="H23" s="20">
+        <v>1</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+    </row>
+    <row r="24" ht="17.5" spans="2:15">
+      <c r="B24" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17">
+        <v>100403</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1</v>
+      </c>
+      <c r="H24" s="20">
+        <v>1</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+    </row>
+    <row r="25" ht="17.5" spans="2:15">
+      <c r="B25" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17">
+        <v>100404</v>
+      </c>
+      <c r="G25" s="19">
+        <v>1</v>
+      </c>
+      <c r="H25" s="20">
+        <v>1</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+    </row>
+    <row r="26" ht="17.5" spans="2:15">
+      <c r="B26" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17">
+        <v>100405</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1</v>
+      </c>
+      <c r="H26" s="20">
+        <v>1</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:15">
+      <c r="B27" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17">
+        <v>100406</v>
+      </c>
+      <c r="G27" s="19">
+        <v>1</v>
+      </c>
+      <c r="H27" s="20">
+        <v>1</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="17"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:15">
+      <c r="B28" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17">
+        <v>100407</v>
+      </c>
+      <c r="G28" s="19">
+        <v>1</v>
+      </c>
+      <c r="H28" s="20">
+        <v>1</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="17"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+    </row>
+    <row r="29" ht="16.5" spans="2:15">
+      <c r="B29" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17">
+        <v>100408</v>
+      </c>
+      <c r="G29" s="19">
+        <v>1</v>
+      </c>
+      <c r="H29" s="20">
+        <v>1</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="17"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+    </row>
+    <row r="30" ht="16.5" spans="2:15">
+      <c r="B30" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17">
+        <v>100409</v>
+      </c>
+      <c r="G30" s="19">
+        <v>1</v>
+      </c>
+      <c r="H30" s="20">
+        <v>1</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="17"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+    </row>
+    <row r="31" ht="16.5" spans="2:15">
+      <c r="B31" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17">
+        <v>100410</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="H31" s="20">
+        <v>1</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="17"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+    </row>
+    <row r="32" ht="16.5" spans="2:15">
+      <c r="B32" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17">
+        <v>100501</v>
+      </c>
+      <c r="G32" s="19">
+        <v>1</v>
+      </c>
+      <c r="H32" s="20">
+        <v>1</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+    </row>
+    <row r="33" ht="16.5" spans="2:15">
+      <c r="B33" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17">
+        <v>100502</v>
+      </c>
+      <c r="G33" s="19">
         <v>2</v>
       </c>
-      <c r="G8" s="14">
-        <v>3</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" ht="16.5" spans="2:14">
-      <c r="B9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14">
-        <v>100105</v>
-      </c>
-      <c r="F9" s="14">
-        <v>3</v>
-      </c>
-      <c r="G9" s="14">
-        <v>3</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-    </row>
-    <row r="10" ht="16.5" spans="2:14">
-      <c r="B10" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14">
-        <v>100201</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16">
-        <v>1</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="14"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-    </row>
-    <row r="11" ht="16.5" spans="2:14">
-      <c r="B11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14">
-        <v>100202</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="14"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-    </row>
-    <row r="12" ht="16.5" spans="2:14">
-      <c r="B12" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14">
-        <v>100203</v>
-      </c>
-      <c r="F12" s="15">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="14"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-    </row>
-    <row r="13" ht="16.5" spans="2:14">
-      <c r="B13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14">
-        <v>100301</v>
-      </c>
-      <c r="F13" s="15">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16">
-        <v>1</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="14" ht="16.5" spans="2:14">
-      <c r="B14" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14">
-        <v>100302</v>
-      </c>
-      <c r="F14" s="15">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
-        <v>1</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" ht="16.5" spans="2:14">
-      <c r="B15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14">
-        <v>100303</v>
-      </c>
-      <c r="F15" s="15">
-        <v>1</v>
-      </c>
-      <c r="G15" s="16">
-        <v>1</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="14"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-    </row>
-    <row r="16" ht="16.5" spans="2:14">
-      <c r="B16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14">
-        <v>100304</v>
-      </c>
-      <c r="F16" s="15">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16">
-        <v>1</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="14"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-    </row>
-    <row r="17" ht="16.5" spans="2:14">
-      <c r="B17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14">
-        <v>100305</v>
-      </c>
-      <c r="F17" s="15">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="14"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-    </row>
-    <row r="18" ht="16.5" spans="2:14">
-      <c r="B18" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14">
-        <v>100306</v>
-      </c>
-      <c r="F18" s="15">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16">
-        <v>1</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-    </row>
-    <row r="19" ht="16.5" spans="2:14">
-      <c r="B19" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14">
-        <v>100307</v>
-      </c>
-      <c r="F19" s="15">
-        <v>1</v>
-      </c>
-      <c r="G19" s="16">
-        <v>1</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-    </row>
-    <row r="20" ht="16.5" spans="2:14">
-      <c r="B20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14">
-        <v>100308</v>
-      </c>
-      <c r="F20" s="15">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16">
-        <v>1</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="14"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-    </row>
-    <row r="21" ht="16.5" spans="2:14">
-      <c r="B21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14">
-        <v>100309</v>
-      </c>
-      <c r="F21" s="15">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16">
-        <v>1</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="14"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-    </row>
-    <row r="22" ht="16.5" spans="2:14">
-      <c r="B22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14">
-        <v>100401</v>
-      </c>
-      <c r="F22" s="15">
-        <v>1</v>
-      </c>
-      <c r="G22" s="16">
-        <v>1</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="14"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-    </row>
-    <row r="23" ht="16.5" spans="2:14">
-      <c r="B23" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14">
-        <v>100402</v>
-      </c>
-      <c r="F23" s="15">
-        <v>1</v>
-      </c>
-      <c r="G23" s="16">
-        <v>1</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I23" s="14"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-    </row>
-    <row r="24" ht="16.5" spans="2:14">
-      <c r="B24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14">
-        <v>100403</v>
-      </c>
-      <c r="F24" s="15">
-        <v>1</v>
-      </c>
-      <c r="G24" s="16">
-        <v>1</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="14"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" ht="16.5" spans="2:14">
-      <c r="B25" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14">
-        <v>100404</v>
-      </c>
-      <c r="F25" s="15">
-        <v>1</v>
-      </c>
-      <c r="G25" s="16">
-        <v>1</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="14"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-    </row>
-    <row r="26" ht="16.5" spans="2:14">
-      <c r="B26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14">
-        <v>100405</v>
-      </c>
-      <c r="F26" s="15">
-        <v>1</v>
-      </c>
-      <c r="G26" s="16">
-        <v>1</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="14"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-    </row>
-    <row r="27" ht="16.5" spans="2:14">
-      <c r="B27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14">
-        <v>100406</v>
-      </c>
-      <c r="F27" s="15">
-        <v>1</v>
-      </c>
-      <c r="G27" s="16">
-        <v>1</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="14"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-    </row>
-    <row r="28" ht="16.5" spans="2:14">
-      <c r="B28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14">
-        <v>100407</v>
-      </c>
-      <c r="F28" s="15">
-        <v>1</v>
-      </c>
-      <c r="G28" s="16">
-        <v>1</v>
-      </c>
-      <c r="H28" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="14"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-    </row>
-    <row r="29" ht="16.5" spans="2:14">
-      <c r="B29" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14">
-        <v>100408</v>
-      </c>
-      <c r="F29" s="15">
-        <v>1</v>
-      </c>
-      <c r="G29" s="16">
-        <v>1</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="14"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-    </row>
-    <row r="30" ht="16.5" spans="2:14">
-      <c r="B30" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14">
-        <v>100409</v>
-      </c>
-      <c r="F30" s="15">
-        <v>1</v>
-      </c>
-      <c r="G30" s="16">
-        <v>1</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="14"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-    </row>
-    <row r="31" ht="16.5" spans="2:14">
-      <c r="B31" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14">
-        <v>100410</v>
-      </c>
-      <c r="F31" s="15">
-        <v>1</v>
-      </c>
-      <c r="G31" s="16">
-        <v>1</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="14"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-    </row>
-    <row r="32" ht="16.5" spans="2:14">
-      <c r="B32" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14">
-        <v>100501</v>
-      </c>
-      <c r="F32" s="15">
-        <v>1</v>
-      </c>
-      <c r="G32" s="16">
-        <v>1</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="14"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-    </row>
-    <row r="33" ht="16.5" spans="2:14">
-      <c r="B33" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14">
-        <v>100502</v>
-      </c>
-      <c r="F33" s="15">
+      <c r="H33" s="20">
         <v>2</v>
       </c>
-      <c r="G33" s="16">
+      <c r="I33" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+    </row>
+    <row r="34" ht="16.5" spans="2:15">
+      <c r="B34" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17">
+        <v>100503</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1</v>
+      </c>
+      <c r="H34" s="20">
+        <v>1</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="17"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+    </row>
+    <row r="35" ht="16.5" spans="2:15">
+      <c r="B35" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17">
+        <v>100504</v>
+      </c>
+      <c r="G35" s="19">
+        <v>1</v>
+      </c>
+      <c r="H35" s="20">
+        <v>1</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+    </row>
+    <row r="36" ht="16.5" spans="2:15">
+      <c r="B36" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17">
+        <v>100505</v>
+      </c>
+      <c r="G36" s="19">
+        <v>1</v>
+      </c>
+      <c r="H36" s="20">
+        <v>1</v>
+      </c>
+      <c r="I36" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="17"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+    </row>
+    <row r="37" ht="16.5" spans="2:15">
+      <c r="B37" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17">
+        <v>100601</v>
+      </c>
+      <c r="G37" s="19">
+        <v>1</v>
+      </c>
+      <c r="H37" s="20">
+        <v>1</v>
+      </c>
+      <c r="I37" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="17"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+    </row>
+    <row r="38" ht="16.5" spans="2:15">
+      <c r="B38" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17">
+        <v>100602</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1</v>
+      </c>
+      <c r="H38" s="20">
+        <v>1</v>
+      </c>
+      <c r="I38" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="17"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+    </row>
+    <row r="39" ht="16.5" spans="2:15">
+      <c r="B39" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17">
+        <v>100603</v>
+      </c>
+      <c r="G39" s="19">
         <v>2</v>
       </c>
-      <c r="H33" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I33" s="14"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-    </row>
-    <row r="34" ht="16.5" spans="2:14">
-      <c r="B34" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14">
-        <v>100503</v>
-      </c>
-      <c r="F34" s="15">
-        <v>1</v>
-      </c>
-      <c r="G34" s="16">
-        <v>1</v>
-      </c>
-      <c r="H34" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="14"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-    </row>
-    <row r="35" ht="16.5" spans="2:14">
-      <c r="B35" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14">
-        <v>100504</v>
-      </c>
-      <c r="F35" s="15">
-        <v>1</v>
-      </c>
-      <c r="G35" s="16">
-        <v>1</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="14"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-    </row>
-    <row r="36" ht="16.5" spans="2:14">
-      <c r="B36" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14">
-        <v>100505</v>
-      </c>
-      <c r="F36" s="15">
-        <v>1</v>
-      </c>
-      <c r="G36" s="16">
-        <v>1</v>
-      </c>
-      <c r="H36" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="14"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-    </row>
-    <row r="37" ht="16.5" spans="2:14">
-      <c r="B37" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14">
-        <v>100601</v>
-      </c>
-      <c r="F37" s="15">
-        <v>1</v>
-      </c>
-      <c r="G37" s="16">
-        <v>1</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="14"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-    </row>
-    <row r="38" ht="16.5" spans="2:14">
-      <c r="B38" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14">
-        <v>100602</v>
-      </c>
-      <c r="F38" s="15">
-        <v>1</v>
-      </c>
-      <c r="G38" s="16">
-        <v>1</v>
-      </c>
-      <c r="H38" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="14"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-    </row>
-    <row r="39" ht="16.5" spans="2:14">
-      <c r="B39" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14">
-        <v>100603</v>
-      </c>
-      <c r="F39" s="15">
+      <c r="H39" s="20">
         <v>2</v>
       </c>
-      <c r="G39" s="16">
-        <v>2</v>
-      </c>
-      <c r="H39" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="14"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-    </row>
-    <row r="40" ht="16.5" spans="2:14">
-      <c r="B40" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14">
+      <c r="I39" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="17"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+    </row>
+    <row r="40" ht="16.5" spans="2:15">
+      <c r="B40" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17">
         <v>100604</v>
       </c>
-      <c r="F40" s="15">
-        <v>1</v>
-      </c>
-      <c r="G40" s="16">
-        <v>1</v>
-      </c>
-      <c r="H40" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="14"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-    </row>
-    <row r="41" ht="16.5" spans="2:14">
-      <c r="B41" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14">
+      <c r="G40" s="19">
+        <v>1</v>
+      </c>
+      <c r="H40" s="20">
+        <v>1</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="17"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+    </row>
+    <row r="41" ht="16.5" spans="2:15">
+      <c r="B41" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17">
         <v>100605</v>
       </c>
-      <c r="F41" s="15">
-        <v>1</v>
-      </c>
-      <c r="G41" s="16">
-        <v>1</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="14"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-    </row>
-    <row r="42" ht="16.5" spans="2:14">
-      <c r="B42" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14">
+      <c r="G41" s="19">
+        <v>1</v>
+      </c>
+      <c r="H41" s="20">
+        <v>1</v>
+      </c>
+      <c r="I41" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="17"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+    </row>
+    <row r="42" ht="16.5" spans="2:15">
+      <c r="B42" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17">
         <v>100606</v>
       </c>
-      <c r="F42" s="15">
-        <v>1</v>
-      </c>
-      <c r="G42" s="16">
-        <v>1</v>
-      </c>
-      <c r="H42" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="14"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-    </row>
-    <row r="43" ht="16.5" spans="2:14">
-      <c r="B43" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="15"/>
-      <c r="E43" s="14">
+      <c r="G42" s="19">
+        <v>1</v>
+      </c>
+      <c r="H42" s="20">
+        <v>1</v>
+      </c>
+      <c r="I42" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="17"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+    </row>
+    <row r="43" ht="16.5" spans="2:15">
+      <c r="B43" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="17">
         <v>100607</v>
       </c>
-      <c r="F43" s="15">
-        <v>1</v>
-      </c>
-      <c r="G43" s="16">
-        <v>1</v>
-      </c>
-      <c r="H43" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I43" s="14"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
+      <c r="G43" s="19">
+        <v>1</v>
+      </c>
+      <c r="H43" s="20">
+        <v>1</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="17"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I6">
+  <conditionalFormatting sqref="J6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3090,70 +3328,70 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:22">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:22">
@@ -3206,10 +3444,10 @@
         <v>8</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>8</v>
@@ -3221,75 +3459,75 @@
         <v>8</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:22">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3357,7 +3595,7 @@
         <v>1</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3402,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3449,7 +3687,7 @@
         <v>1</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3496,7 +3734,7 @@
         <v>1</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3543,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3590,7 +3828,7 @@
         <v>1</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="16.5" spans="1:22">
@@ -3637,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/配置表/MapItem.xlsx
+++ b/配置表/MapItem.xlsx
@@ -535,13 +535,13 @@
     <t>砖块路</t>
   </si>
   <si>
-    <t>White sand path</t>
+    <t>White stone path</t>
   </si>
   <si>
     <t>白色石子路2</t>
   </si>
   <si>
-    <t>Brown ground path</t>
+    <t>Country road path</t>
   </si>
   <si>
     <t xml:space="preserve">Sapphire Brick path </t>
@@ -592,7 +592,7 @@
     <t>秋天栅栏</t>
   </si>
   <si>
-    <t>Wooden fence</t>
+    <t>Mediterranean Wooden fence</t>
   </si>
   <si>
     <t>木头栅栏2</t>
@@ -610,7 +610,7 @@
     <t>石砖栅栏</t>
   </si>
   <si>
-    <t>Mediterranean wooden fence</t>
+    <t>White wooden fence</t>
   </si>
   <si>
     <t>木条栅栏</t>
@@ -1529,7 +1529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1552,13 +1552,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2123,7 +2117,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -2145,27 +2139,27 @@
       <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="9"/>
-      <c r="M1" s="13"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" s="10" customFormat="1" ht="16.5" spans="1:13">
       <c r="A2" s="10" t="s">
@@ -2174,45 +2168,45 @@
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" s="10" customFormat="1" ht="17.1" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
       <c r="L3" s="10"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="21"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="19"/>
     </row>
     <row r="4" s="10" customFormat="1" ht="16.5" spans="1:15">
       <c r="A4" s="10" t="s">
@@ -2221,1089 +2215,1089 @@
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-    </row>
-    <row r="5" ht="17.5" spans="2:15">
-      <c r="B5" s="16" t="s">
+      <c r="M4" s="13"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" ht="16.5" spans="2:15">
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15">
         <v>100101</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="15">
         <v>3</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>2</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-    </row>
-    <row r="6" ht="17.5" spans="2:15">
-      <c r="B6" s="16" t="s">
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:15">
+      <c r="B6" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17">
+      <c r="E6" s="15"/>
+      <c r="F6" s="15">
         <v>100102</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <v>2</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <v>3</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-    </row>
-    <row r="7" ht="17.5" spans="2:15">
-      <c r="B7" s="16" t="s">
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:15">
+      <c r="B7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15">
         <v>100103</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="15">
         <v>2</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <v>3</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-    </row>
-    <row r="8" ht="17.5" spans="2:15">
-      <c r="B8" s="16" t="s">
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" ht="16.5" spans="2:15">
+      <c r="B8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15">
         <v>100104</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="15">
         <v>2</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>3</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-    </row>
-    <row r="9" ht="17.5" spans="2:15">
-      <c r="B9" s="16" t="s">
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:15">
+      <c r="B9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15">
         <v>100105</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="15">
         <v>3</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="15">
         <v>3</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" ht="16.5" spans="2:15">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15">
         <v>100201</v>
       </c>
-      <c r="G10" s="19">
-        <v>1</v>
-      </c>
-      <c r="H10" s="20">
-        <v>1</v>
-      </c>
-      <c r="I10" s="17" t="s">
+      <c r="G10" s="17">
+        <v>1</v>
+      </c>
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
+      <c r="J10" s="15"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
     </row>
     <row r="11" ht="16.5" spans="2:15">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15">
         <v>100202</v>
       </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="20">
-        <v>1</v>
-      </c>
-      <c r="I11" s="17" t="s">
+      <c r="G11" s="17">
+        <v>1</v>
+      </c>
+      <c r="H11" s="18">
+        <v>1</v>
+      </c>
+      <c r="I11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="17"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-    </row>
-    <row r="12" ht="17.5" spans="2:15">
-      <c r="B12" s="16" t="s">
+      <c r="J11" s="15"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:15">
+      <c r="B12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15">
         <v>100203</v>
       </c>
-      <c r="G12" s="19">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20">
-        <v>1</v>
-      </c>
-      <c r="I12" s="17" t="s">
+      <c r="G12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" ht="17.5" spans="2:15">
-      <c r="B13" s="16" t="s">
+      <c r="J12" s="15"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:15">
+      <c r="B13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15">
         <v>100301</v>
       </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="20">
-        <v>1</v>
-      </c>
-      <c r="I13" s="17" t="s">
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="17"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-    </row>
-    <row r="14" ht="17.5" spans="2:15">
-      <c r="B14" s="16" t="s">
+      <c r="J13" s="15"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" ht="16.5" spans="2:15">
+      <c r="B14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17">
+      <c r="E14" s="15"/>
+      <c r="F14" s="15">
         <v>100302</v>
       </c>
-      <c r="G14" s="19">
-        <v>1</v>
-      </c>
-      <c r="H14" s="20">
-        <v>1</v>
-      </c>
-      <c r="I14" s="17" t="s">
+      <c r="G14" s="17">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J14" s="17"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-    </row>
-    <row r="15" ht="17.5" spans="2:15">
-      <c r="B15" s="16" t="s">
+      <c r="J14" s="15"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" ht="16.5" spans="2:15">
+      <c r="B15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15">
         <v>100303</v>
       </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
-      <c r="H15" s="20">
-        <v>1</v>
-      </c>
-      <c r="I15" s="17" t="s">
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="18">
+        <v>1</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="17"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-    </row>
-    <row r="16" ht="17.5" spans="2:15">
-      <c r="B16" s="16" t="s">
+      <c r="J15" s="15"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:15">
+      <c r="B16" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17">
+      <c r="E16" s="15"/>
+      <c r="F16" s="15">
         <v>100304</v>
       </c>
-      <c r="G16" s="19">
-        <v>1</v>
-      </c>
-      <c r="H16" s="20">
-        <v>1</v>
-      </c>
-      <c r="I16" s="17" t="s">
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="18">
+        <v>1</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J16" s="17"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
+      <c r="J16" s="15"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
     </row>
     <row r="17" ht="16.5" spans="2:15">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17">
+      <c r="E17" s="15"/>
+      <c r="F17" s="15">
         <v>100305</v>
       </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="20">
-        <v>1</v>
-      </c>
-      <c r="I17" s="17" t="s">
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="18">
+        <v>1</v>
+      </c>
+      <c r="I17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="17"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
+      <c r="J17" s="15"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
     </row>
     <row r="18" ht="16.5" spans="2:15">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17">
+      <c r="E18" s="15"/>
+      <c r="F18" s="15">
         <v>100306</v>
       </c>
-      <c r="G18" s="19">
-        <v>1</v>
-      </c>
-      <c r="H18" s="20">
-        <v>1</v>
-      </c>
-      <c r="I18" s="17" t="s">
+      <c r="G18" s="17">
+        <v>1</v>
+      </c>
+      <c r="H18" s="18">
+        <v>1</v>
+      </c>
+      <c r="I18" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="17"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
+      <c r="J18" s="15"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
     </row>
     <row r="19" ht="16.5" spans="2:15">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15">
         <v>100307</v>
       </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="20">
-        <v>1</v>
-      </c>
-      <c r="I19" s="17" t="s">
+      <c r="G19" s="17">
+        <v>1</v>
+      </c>
+      <c r="H19" s="18">
+        <v>1</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="17"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
+      <c r="J19" s="15"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
     </row>
     <row r="20" ht="16.5" spans="2:15">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17">
+      <c r="E20" s="15"/>
+      <c r="F20" s="15">
         <v>100308</v>
       </c>
-      <c r="G20" s="19">
-        <v>1</v>
-      </c>
-      <c r="H20" s="20">
-        <v>1</v>
-      </c>
-      <c r="I20" s="17" t="s">
+      <c r="G20" s="17">
+        <v>1</v>
+      </c>
+      <c r="H20" s="18">
+        <v>1</v>
+      </c>
+      <c r="I20" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="17"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
+      <c r="J20" s="15"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
     </row>
     <row r="21" ht="16.5" spans="2:15">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17">
+      <c r="E21" s="15"/>
+      <c r="F21" s="15">
         <v>100309</v>
       </c>
-      <c r="G21" s="19">
-        <v>1</v>
-      </c>
-      <c r="H21" s="20">
-        <v>1</v>
-      </c>
-      <c r="I21" s="17" t="s">
+      <c r="G21" s="17">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="17"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
+      <c r="J21" s="15"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
     </row>
     <row r="22" ht="16.5" spans="2:15">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17">
+      <c r="E22" s="15"/>
+      <c r="F22" s="15">
         <v>100401</v>
       </c>
-      <c r="G22" s="19">
-        <v>1</v>
-      </c>
-      <c r="H22" s="20">
-        <v>1</v>
-      </c>
-      <c r="I22" s="17" t="s">
+      <c r="G22" s="17">
+        <v>1</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J22" s="17"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
+      <c r="J22" s="15"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
     </row>
     <row r="23" ht="16.5" spans="2:15">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17">
+      <c r="E23" s="15"/>
+      <c r="F23" s="15">
         <v>100402</v>
       </c>
-      <c r="G23" s="19">
-        <v>1</v>
-      </c>
-      <c r="H23" s="20">
-        <v>1</v>
-      </c>
-      <c r="I23" s="17" t="s">
+      <c r="G23" s="17">
+        <v>1</v>
+      </c>
+      <c r="H23" s="18">
+        <v>1</v>
+      </c>
+      <c r="I23" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J23" s="17"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-    </row>
-    <row r="24" ht="17.5" spans="2:15">
-      <c r="B24" s="16" t="s">
+      <c r="J23" s="15"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:15">
+      <c r="B24" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15">
         <v>100403</v>
       </c>
-      <c r="G24" s="19">
-        <v>1</v>
-      </c>
-      <c r="H24" s="20">
-        <v>1</v>
-      </c>
-      <c r="I24" s="17" t="s">
+      <c r="G24" s="17">
+        <v>1</v>
+      </c>
+      <c r="H24" s="18">
+        <v>1</v>
+      </c>
+      <c r="I24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J24" s="17"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-    </row>
-    <row r="25" ht="17.5" spans="2:15">
-      <c r="B25" s="16" t="s">
+      <c r="J24" s="15"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:15">
+      <c r="B25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17">
+      <c r="E25" s="15"/>
+      <c r="F25" s="15">
         <v>100404</v>
       </c>
-      <c r="G25" s="19">
-        <v>1</v>
-      </c>
-      <c r="H25" s="20">
-        <v>1</v>
-      </c>
-      <c r="I25" s="17" t="s">
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="H25" s="18">
+        <v>1</v>
+      </c>
+      <c r="I25" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="17"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-    </row>
-    <row r="26" ht="17.5" spans="2:15">
-      <c r="B26" s="16" t="s">
+      <c r="J25" s="15"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:15">
+      <c r="B26" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15">
         <v>100405</v>
       </c>
-      <c r="G26" s="19">
-        <v>1</v>
-      </c>
-      <c r="H26" s="20">
-        <v>1</v>
-      </c>
-      <c r="I26" s="17" t="s">
+      <c r="G26" s="17">
+        <v>1</v>
+      </c>
+      <c r="H26" s="18">
+        <v>1</v>
+      </c>
+      <c r="I26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
+      <c r="J26" s="15"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
     </row>
     <row r="27" ht="16.5" spans="2:15">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17">
+      <c r="E27" s="15"/>
+      <c r="F27" s="15">
         <v>100406</v>
       </c>
-      <c r="G27" s="19">
-        <v>1</v>
-      </c>
-      <c r="H27" s="20">
-        <v>1</v>
-      </c>
-      <c r="I27" s="17" t="s">
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="18">
+        <v>1</v>
+      </c>
+      <c r="I27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J27" s="17"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
+      <c r="J27" s="15"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
     </row>
     <row r="28" ht="16.5" spans="2:15">
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15">
         <v>100407</v>
       </c>
-      <c r="G28" s="19">
-        <v>1</v>
-      </c>
-      <c r="H28" s="20">
-        <v>1</v>
-      </c>
-      <c r="I28" s="17" t="s">
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+      <c r="H28" s="18">
+        <v>1</v>
+      </c>
+      <c r="I28" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J28" s="17"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
+      <c r="J28" s="15"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
     </row>
     <row r="29" ht="16.5" spans="2:15">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17">
+      <c r="E29" s="15"/>
+      <c r="F29" s="15">
         <v>100408</v>
       </c>
-      <c r="G29" s="19">
-        <v>1</v>
-      </c>
-      <c r="H29" s="20">
-        <v>1</v>
-      </c>
-      <c r="I29" s="17" t="s">
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="18">
+        <v>1</v>
+      </c>
+      <c r="I29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J29" s="17"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
+      <c r="J29" s="15"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
     </row>
     <row r="30" ht="16.5" spans="2:15">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17">
+      <c r="E30" s="15"/>
+      <c r="F30" s="15">
         <v>100409</v>
       </c>
-      <c r="G30" s="19">
-        <v>1</v>
-      </c>
-      <c r="H30" s="20">
-        <v>1</v>
-      </c>
-      <c r="I30" s="17" t="s">
+      <c r="G30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30" s="18">
+        <v>1</v>
+      </c>
+      <c r="I30" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J30" s="17"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
+      <c r="J30" s="15"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
     </row>
     <row r="31" ht="16.5" spans="2:15">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17">
+      <c r="E31" s="15"/>
+      <c r="F31" s="15">
         <v>100410</v>
       </c>
-      <c r="G31" s="19">
-        <v>1</v>
-      </c>
-      <c r="H31" s="20">
-        <v>1</v>
-      </c>
-      <c r="I31" s="17" t="s">
+      <c r="G31" s="17">
+        <v>1</v>
+      </c>
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
+      <c r="I31" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J31" s="17"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
+      <c r="J31" s="15"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
     </row>
     <row r="32" ht="16.5" spans="2:15">
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17">
+      <c r="E32" s="15"/>
+      <c r="F32" s="15">
         <v>100501</v>
       </c>
-      <c r="G32" s="19">
-        <v>1</v>
-      </c>
-      <c r="H32" s="20">
-        <v>1</v>
-      </c>
-      <c r="I32" s="17" t="s">
+      <c r="G32" s="17">
+        <v>1</v>
+      </c>
+      <c r="H32" s="18">
+        <v>1</v>
+      </c>
+      <c r="I32" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J32" s="17"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
+      <c r="J32" s="15"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
     </row>
     <row r="33" ht="16.5" spans="2:15">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17">
+      <c r="E33" s="15"/>
+      <c r="F33" s="15">
         <v>100502</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="17">
         <v>2</v>
       </c>
-      <c r="H33" s="20">
+      <c r="H33" s="18">
         <v>2</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J33" s="17"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
+      <c r="J33" s="15"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
     </row>
     <row r="34" ht="16.5" spans="2:15">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17">
+      <c r="E34" s="15"/>
+      <c r="F34" s="15">
         <v>100503</v>
       </c>
-      <c r="G34" s="19">
-        <v>1</v>
-      </c>
-      <c r="H34" s="20">
-        <v>1</v>
-      </c>
-      <c r="I34" s="17" t="s">
+      <c r="G34" s="17">
+        <v>1</v>
+      </c>
+      <c r="H34" s="18">
+        <v>1</v>
+      </c>
+      <c r="I34" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J34" s="17"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
+      <c r="J34" s="15"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
     </row>
     <row r="35" ht="16.5" spans="2:15">
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17">
+      <c r="E35" s="15"/>
+      <c r="F35" s="15">
         <v>100504</v>
       </c>
-      <c r="G35" s="19">
-        <v>1</v>
-      </c>
-      <c r="H35" s="20">
-        <v>1</v>
-      </c>
-      <c r="I35" s="17" t="s">
+      <c r="G35" s="17">
+        <v>1</v>
+      </c>
+      <c r="H35" s="18">
+        <v>1</v>
+      </c>
+      <c r="I35" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J35" s="17"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
+      <c r="J35" s="15"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
     </row>
     <row r="36" ht="16.5" spans="2:15">
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17">
+      <c r="E36" s="15"/>
+      <c r="F36" s="15">
         <v>100505</v>
       </c>
-      <c r="G36" s="19">
-        <v>1</v>
-      </c>
-      <c r="H36" s="20">
-        <v>1</v>
-      </c>
-      <c r="I36" s="17" t="s">
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36" s="18">
+        <v>1</v>
+      </c>
+      <c r="I36" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J36" s="17"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
+      <c r="J36" s="15"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
     </row>
     <row r="37" ht="16.5" spans="2:15">
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17">
+      <c r="E37" s="15"/>
+      <c r="F37" s="15">
         <v>100601</v>
       </c>
-      <c r="G37" s="19">
-        <v>1</v>
-      </c>
-      <c r="H37" s="20">
-        <v>1</v>
-      </c>
-      <c r="I37" s="17" t="s">
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="18">
+        <v>1</v>
+      </c>
+      <c r="I37" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J37" s="17"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
+      <c r="J37" s="15"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
     </row>
     <row r="38" ht="16.5" spans="2:15">
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17">
+      <c r="E38" s="15"/>
+      <c r="F38" s="15">
         <v>100602</v>
       </c>
-      <c r="G38" s="19">
-        <v>1</v>
-      </c>
-      <c r="H38" s="20">
-        <v>1</v>
-      </c>
-      <c r="I38" s="17" t="s">
+      <c r="G38" s="17">
+        <v>1</v>
+      </c>
+      <c r="H38" s="18">
+        <v>1</v>
+      </c>
+      <c r="I38" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J38" s="17"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
+      <c r="J38" s="15"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
     </row>
     <row r="39" ht="16.5" spans="2:15">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17">
+      <c r="E39" s="15"/>
+      <c r="F39" s="15">
         <v>100603</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="17">
         <v>2</v>
       </c>
-      <c r="H39" s="20">
+      <c r="H39" s="18">
         <v>2</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J39" s="17"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
+      <c r="J39" s="15"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
     </row>
     <row r="40" ht="16.5" spans="2:15">
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15">
         <v>100604</v>
       </c>
-      <c r="G40" s="19">
-        <v>1</v>
-      </c>
-      <c r="H40" s="20">
-        <v>1</v>
-      </c>
-      <c r="I40" s="17" t="s">
+      <c r="G40" s="17">
+        <v>1</v>
+      </c>
+      <c r="H40" s="18">
+        <v>1</v>
+      </c>
+      <c r="I40" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J40" s="17"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
+      <c r="J40" s="15"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
     </row>
     <row r="41" ht="16.5" spans="2:15">
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15">
         <v>100605</v>
       </c>
-      <c r="G41" s="19">
-        <v>1</v>
-      </c>
-      <c r="H41" s="20">
-        <v>1</v>
-      </c>
-      <c r="I41" s="17" t="s">
+      <c r="G41" s="17">
+        <v>1</v>
+      </c>
+      <c r="H41" s="18">
+        <v>1</v>
+      </c>
+      <c r="I41" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J41" s="17"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
+      <c r="J41" s="15"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
     </row>
     <row r="42" ht="16.5" spans="2:15">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15">
         <v>100606</v>
       </c>
-      <c r="G42" s="19">
-        <v>1</v>
-      </c>
-      <c r="H42" s="20">
-        <v>1</v>
-      </c>
-      <c r="I42" s="17" t="s">
+      <c r="G42" s="17">
+        <v>1</v>
+      </c>
+      <c r="H42" s="18">
+        <v>1</v>
+      </c>
+      <c r="I42" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J42" s="17"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
+      <c r="J42" s="15"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
     </row>
     <row r="43" ht="16.5" spans="2:15">
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="17">
+      <c r="E43" s="17"/>
+      <c r="F43" s="15">
         <v>100607</v>
       </c>
-      <c r="G43" s="19">
-        <v>1</v>
-      </c>
-      <c r="H43" s="20">
-        <v>1</v>
-      </c>
-      <c r="I43" s="17" t="s">
+      <c r="G43" s="17">
+        <v>1</v>
+      </c>
+      <c r="H43" s="18">
+        <v>1</v>
+      </c>
+      <c r="I43" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="17"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
+      <c r="J43" s="15"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6">

--- a/配置表/MapItem.xlsx
+++ b/配置表/MapItem.xlsx
@@ -397,16 +397,16 @@
     <t>##var</t>
   </si>
   <si>
-    <t>主键id int类型</t>
-  </si>
-  <si>
-    <t>物品描述</t>
-  </si>
-  <si>
-    <t>物品图片</t>
-  </si>
-  <si>
-    <t>初始数量</t>
+    <t>keyint</t>
+  </si>
+  <si>
+    <t>itemdesc</t>
+  </si>
+  <si>
+    <t>itemimage</t>
+  </si>
+  <si>
+    <t>initialcount</t>
   </si>
   <si>
     <t>typeID</t>
@@ -2117,7 +2117,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>

--- a/配置表/MapItem.xlsx
+++ b/配置表/MapItem.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20827" windowHeight="11175"/>
+    <workbookView windowHeight="17680"/>
   </bookViews>
   <sheets>
     <sheet name="resource" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,33 +54,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>##var</t>
   </si>
   <si>
-    <t>keyint</t>
-  </si>
-  <si>
-    <t>keyName</t>
-  </si>
-  <si>
-    <t>keyCnName</t>
-  </si>
-  <si>
-    <t>itemdesc</t>
-  </si>
-  <si>
-    <t>itemimage</t>
-  </si>
-  <si>
-    <t>initialcount</t>
-  </si>
-  <si>
-    <t>typeX</t>
-  </si>
-  <si>
-    <t>typeName</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>nameCN</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>isRuleTile</t>
   </si>
   <si>
     <t>##type</t>
@@ -98,7 +95,10 @@
     <t>##</t>
   </si>
   <si>
-    <t>装饰物名字</t>
+    <t>id 主键</t>
+  </si>
+  <si>
+    <t>名字</t>
   </si>
   <si>
     <t>装饰物中文名字</t>
@@ -107,12 +107,6 @@
     <t>装饰物类型</t>
   </si>
   <si>
-    <t>图片</t>
-  </si>
-  <si>
-    <t>预制体ID</t>
-  </si>
-  <si>
     <t>占位列表X</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>茅草屋</t>
   </si>
   <si>
-    <t>建筑</t>
-  </si>
-  <si>
     <t>Log cabin</t>
   </si>
   <si>
@@ -161,9 +152,6 @@
     <t>椰子树</t>
   </si>
   <si>
-    <t>树木</t>
-  </si>
-  <si>
     <t>Pine tree</t>
   </si>
   <si>
@@ -182,9 +170,6 @@
     <t>石子路</t>
   </si>
   <si>
-    <t>道路</t>
-  </si>
-  <si>
     <t>Cobblestone path</t>
   </si>
   <si>
@@ -233,9 +218,6 @@
     <t>冬青栅栏</t>
   </si>
   <si>
-    <t>栅栏</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Stone fence</t>
   </si>
   <si>
@@ -296,9 +278,6 @@
     <t>木质长椅</t>
   </si>
   <si>
-    <t>装饰物</t>
-  </si>
-  <si>
     <t>Gazebo</t>
   </si>
   <si>
@@ -320,9 +299,6 @@
     <t>Empty field</t>
   </si>
   <si>
-    <t>农田</t>
-  </si>
-  <si>
     <t>Lettuce fieled</t>
   </si>
   <si>
@@ -336,15 +312,6 @@
   </si>
   <si>
     <t>Gypsophila</t>
-  </si>
-  <si>
-    <t>Cookisland</t>
-  </si>
-  <si>
-    <t>cookisland</t>
-  </si>
-  <si>
-    <t>海岛</t>
   </si>
 </sst>
 </file>
@@ -1078,13 +1045,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1622,25 +1589,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="3" width="31.1858407079646" customWidth="1"/>
-    <col min="4" max="5" width="28.0176991150442" customWidth="1"/>
-    <col min="6" max="6" width="23.5044247787611" customWidth="1"/>
-    <col min="7" max="7" width="35.7256637168142" customWidth="1"/>
-    <col min="8" max="8" width="12.4159292035398" customWidth="1"/>
-    <col min="9" max="9" width="11.2920353982301" customWidth="1"/>
-    <col min="10" max="10" width="30.5398230088496" customWidth="1"/>
-    <col min="11" max="11" width="10"/>
+    <col min="2" max="3" width="31.1818181818182" customWidth="1"/>
+    <col min="4" max="5" width="28.0181818181818" customWidth="1"/>
+    <col min="6" max="6" width="12.4181818181818" customWidth="1"/>
+    <col min="7" max="7" width="11.2909090909091" customWidth="1"/>
+    <col min="8" max="8" width="30.5363636363636" customWidth="1"/>
+    <col min="9" max="9" width="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:14">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1665,56 +1630,44 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:12">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="15" spans="1:14">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="17.1" customHeight="1" spans="1:15">
+    </row>
+    <row r="3" s="2" customFormat="1" ht="17.1" customHeight="1" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1725,18 +1678,16 @@
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="11"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="15" spans="1:16">
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="16.5" spans="1:14">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>14</v>
@@ -1756,1196 +1707,1020 @@
       <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" ht="16.5" spans="2:14">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-    </row>
-    <row r="5" ht="16.1" spans="2:16">
-      <c r="B5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="8"/>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>3</v>
+      </c>
       <c r="G5" s="8">
-        <v>100101</v>
+        <v>2</v>
       </c>
       <c r="H5" s="8">
-        <v>3</v>
-      </c>
-      <c r="I5" s="8">
-        <v>2</v>
-      </c>
-      <c r="J5" s="8">
-        <v>1</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" ht="16.1" spans="2:16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" ht="16.5" spans="2:14">
       <c r="B6" s="7">
         <v>2</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
       <c r="G6" s="8">
-        <v>100102</v>
+        <v>3</v>
       </c>
       <c r="H6" s="8">
-        <v>2</v>
-      </c>
-      <c r="I6" s="8">
-        <v>3</v>
-      </c>
-      <c r="J6" s="8">
-        <v>1</v>
-      </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-    </row>
-    <row r="7" ht="16.1" spans="2:16">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" ht="16.5" spans="2:14">
       <c r="B7" s="7">
         <v>3</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
       <c r="G7" s="8">
-        <v>100103</v>
+        <v>3</v>
       </c>
       <c r="H7" s="8">
-        <v>2</v>
-      </c>
-      <c r="I7" s="8">
-        <v>3</v>
-      </c>
-      <c r="J7" s="8">
-        <v>1</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-    </row>
-    <row r="8" ht="16.1" spans="2:16">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" ht="16.5" spans="2:14">
       <c r="B8" s="7">
         <v>4</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="E8" s="8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
       <c r="G8" s="8">
-        <v>100104</v>
+        <v>3</v>
       </c>
       <c r="H8" s="8">
-        <v>2</v>
-      </c>
-      <c r="I8" s="8">
-        <v>3</v>
-      </c>
-      <c r="J8" s="8">
-        <v>1</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-    </row>
-    <row r="9" ht="16.1" spans="2:16">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+    </row>
+    <row r="9" ht="16.5" spans="2:14">
       <c r="B9" s="7">
         <v>5</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3</v>
+      </c>
       <c r="G9" s="8">
-        <v>100105</v>
+        <v>3</v>
       </c>
       <c r="H9" s="8">
-        <v>3</v>
-      </c>
-      <c r="I9" s="8">
-        <v>3</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-    </row>
-    <row r="10" ht="16.1" spans="2:16">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+    </row>
+    <row r="10" ht="16.5" spans="2:14">
       <c r="B10" s="7">
         <v>6</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8">
-        <v>100201</v>
-      </c>
-      <c r="H10" s="10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-    </row>
-    <row r="11" ht="16.1" spans="2:16">
+        <v>31</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" spans="2:14">
       <c r="B11" s="7">
         <v>7</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8">
-        <v>100202</v>
-      </c>
-      <c r="H11" s="10">
-        <v>1</v>
-      </c>
-      <c r="I11" s="13">
-        <v>1</v>
-      </c>
-      <c r="J11" s="8">
-        <v>1</v>
-      </c>
-      <c r="K11" s="8"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" ht="16.1" spans="2:16">
+        <v>33</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" spans="2:14">
       <c r="B12" s="7">
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8">
-        <v>100203</v>
-      </c>
-      <c r="H12" s="10">
-        <v>1</v>
-      </c>
-      <c r="I12" s="13">
-        <v>1</v>
-      </c>
-      <c r="J12" s="8">
-        <v>1</v>
-      </c>
-      <c r="K12" s="8"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="13" ht="16.1" spans="2:16">
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" spans="2:14">
       <c r="B13" s="7">
         <v>9</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8">
-        <v>100301</v>
-      </c>
-      <c r="H13" s="10">
-        <v>1</v>
-      </c>
-      <c r="I13" s="13">
-        <v>1</v>
-      </c>
-      <c r="J13" s="8">
-        <v>1</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" ht="16.1" spans="2:16">
+        <v>37</v>
+      </c>
+      <c r="E13" s="10">
+        <v>3</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" spans="2:14">
       <c r="B14" s="7">
         <v>10</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8">
-        <v>100302</v>
-      </c>
-      <c r="H14" s="10">
-        <v>1</v>
-      </c>
-      <c r="I14" s="13">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" ht="16.1" spans="2:16">
+        <v>39</v>
+      </c>
+      <c r="E14" s="10">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" spans="2:14">
       <c r="B15" s="7">
         <v>11</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8">
-        <v>100303</v>
-      </c>
-      <c r="H15" s="10">
-        <v>1</v>
-      </c>
-      <c r="I15" s="13">
-        <v>1</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" ht="16.1" spans="2:16">
+        <v>41</v>
+      </c>
+      <c r="E15" s="10">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" spans="2:14">
       <c r="B16" s="7">
         <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8">
-        <v>100304</v>
-      </c>
-      <c r="H16" s="10">
-        <v>1</v>
-      </c>
-      <c r="I16" s="13">
-        <v>1</v>
-      </c>
-      <c r="J16" s="8">
-        <v>1</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" ht="16.1" spans="2:16">
+        <v>43</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" spans="2:14">
       <c r="B17" s="7">
         <v>13</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8">
-        <v>100305</v>
-      </c>
-      <c r="H17" s="10">
-        <v>1</v>
-      </c>
-      <c r="I17" s="13">
-        <v>1</v>
-      </c>
-      <c r="J17" s="8">
-        <v>1</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-    </row>
-    <row r="18" ht="16.1" spans="2:16">
+        <v>45</v>
+      </c>
+      <c r="E17" s="10">
+        <v>3</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" spans="2:14">
       <c r="B18" s="7">
         <v>14</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8">
-        <v>100306</v>
-      </c>
-      <c r="H18" s="10">
-        <v>1</v>
-      </c>
-      <c r="I18" s="13">
-        <v>1</v>
-      </c>
-      <c r="J18" s="8">
-        <v>1</v>
-      </c>
-      <c r="K18" s="8"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-    </row>
-    <row r="19" ht="16.1" spans="2:16">
+        <v>41</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" spans="2:14">
       <c r="B19" s="7">
         <v>15</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8">
-        <v>100307</v>
-      </c>
-      <c r="H19" s="10">
-        <v>1</v>
-      </c>
-      <c r="I19" s="13">
-        <v>1</v>
-      </c>
-      <c r="J19" s="8">
-        <v>1</v>
-      </c>
-      <c r="K19" s="8"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-    </row>
-    <row r="20" ht="16.1" spans="2:16">
+        <v>43</v>
+      </c>
+      <c r="E19" s="10">
+        <v>3</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" spans="2:14">
       <c r="B20" s="7">
         <v>16</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8">
-        <v>100308</v>
-      </c>
-      <c r="H20" s="10">
-        <v>1</v>
-      </c>
-      <c r="I20" s="13">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1</v>
-      </c>
-      <c r="K20" s="8"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-    </row>
-    <row r="21" ht="16.1" spans="2:16">
+        <v>49</v>
+      </c>
+      <c r="E20" s="10">
+        <v>3</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="11">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" spans="2:14">
       <c r="B21" s="7">
         <v>17</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8">
-        <v>100309</v>
-      </c>
-      <c r="H21" s="10">
-        <v>1</v>
-      </c>
-      <c r="I21" s="13">
-        <v>1</v>
-      </c>
-      <c r="J21" s="8">
-        <v>1</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-    </row>
-    <row r="22" ht="16.1" spans="2:16">
+        <v>51</v>
+      </c>
+      <c r="E21" s="10">
+        <v>3</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" spans="2:14">
       <c r="B22" s="7">
         <v>18</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8">
-        <v>100401</v>
-      </c>
-      <c r="H22" s="10">
-        <v>1</v>
-      </c>
-      <c r="I22" s="13">
-        <v>1</v>
-      </c>
-      <c r="J22" s="8">
-        <v>1</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-    </row>
-    <row r="23" ht="16.1" spans="2:16">
+        <v>53</v>
+      </c>
+      <c r="E22" s="10">
+        <v>4</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="11">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" spans="2:14">
       <c r="B23" s="7">
         <v>19</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8">
-        <v>100402</v>
-      </c>
-      <c r="H23" s="10">
-        <v>1</v>
-      </c>
-      <c r="I23" s="13">
-        <v>1</v>
-      </c>
-      <c r="J23" s="8">
-        <v>1</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-    </row>
-    <row r="24" ht="16.1" spans="2:16">
+        <v>55</v>
+      </c>
+      <c r="E23" s="10">
+        <v>4</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+    </row>
+    <row r="24" ht="16.5" spans="2:14">
       <c r="B24" s="7">
         <v>20</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8">
-        <v>100403</v>
-      </c>
-      <c r="H24" s="10">
-        <v>1</v>
-      </c>
-      <c r="I24" s="13">
-        <v>1</v>
-      </c>
-      <c r="J24" s="8">
-        <v>1</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-    </row>
-    <row r="25" ht="16.1" spans="2:16">
+        <v>57</v>
+      </c>
+      <c r="E24" s="10">
+        <v>4</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" spans="2:14">
       <c r="B25" s="7">
         <v>21</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8">
-        <v>100404</v>
-      </c>
-      <c r="H25" s="10">
-        <v>1</v>
-      </c>
-      <c r="I25" s="13">
-        <v>1</v>
-      </c>
-      <c r="J25" s="8">
-        <v>1</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-    </row>
-    <row r="26" ht="16.1" spans="2:16">
+      <c r="E25" s="10">
+        <v>4</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="11">
+        <v>1</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+    </row>
+    <row r="26" ht="16.5" spans="2:14">
       <c r="B26" s="7">
         <v>22</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8">
-        <v>100405</v>
-      </c>
-      <c r="H26" s="10">
-        <v>1</v>
-      </c>
-      <c r="I26" s="13">
-        <v>1</v>
-      </c>
-      <c r="J26" s="8">
-        <v>1</v>
-      </c>
-      <c r="K26" s="8"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-    </row>
-    <row r="27" ht="16.1" spans="2:16">
+        <v>61</v>
+      </c>
+      <c r="E26" s="10">
+        <v>4</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="11">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8">
+        <v>1</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" spans="2:14">
       <c r="B27" s="7">
         <v>23</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8">
-        <v>100406</v>
-      </c>
-      <c r="H27" s="10">
-        <v>1</v>
-      </c>
-      <c r="I27" s="13">
-        <v>1</v>
-      </c>
-      <c r="J27" s="8">
-        <v>1</v>
-      </c>
-      <c r="K27" s="8"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-    </row>
-    <row r="28" ht="16.1" spans="2:16">
+        <v>63</v>
+      </c>
+      <c r="E27" s="10">
+        <v>4</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8">
+        <v>1</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" spans="2:14">
       <c r="B28" s="7">
         <v>24</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8">
-        <v>100407</v>
-      </c>
-      <c r="H28" s="10">
-        <v>1</v>
-      </c>
-      <c r="I28" s="13">
-        <v>1</v>
-      </c>
-      <c r="J28" s="8">
-        <v>1</v>
-      </c>
-      <c r="K28" s="8"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-    </row>
-    <row r="29" ht="16.1" spans="2:16">
+        <v>65</v>
+      </c>
+      <c r="E28" s="10">
+        <v>4</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" s="8">
+        <v>1</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" spans="2:14">
       <c r="B29" s="7">
         <v>25</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8">
-        <v>100408</v>
-      </c>
-      <c r="H29" s="10">
-        <v>1</v>
-      </c>
-      <c r="I29" s="13">
-        <v>1</v>
-      </c>
-      <c r="J29" s="8">
-        <v>1</v>
-      </c>
-      <c r="K29" s="8"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12"/>
-    </row>
-    <row r="30" ht="16.1" spans="2:16">
+        <v>67</v>
+      </c>
+      <c r="E29" s="10">
+        <v>4</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" spans="2:14">
       <c r="B30" s="7">
         <v>26</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8">
-        <v>100409</v>
-      </c>
-      <c r="H30" s="10">
-        <v>1</v>
-      </c>
-      <c r="I30" s="13">
-        <v>1</v>
-      </c>
-      <c r="J30" s="8">
-        <v>1</v>
-      </c>
-      <c r="K30" s="8"/>
-      <c r="O30" s="12"/>
-      <c r="P30" s="12"/>
-    </row>
-    <row r="31" ht="16.1" spans="2:16">
+        <v>69</v>
+      </c>
+      <c r="E30" s="10">
+        <v>4</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="11">
+        <v>1</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" spans="2:14">
       <c r="B31" s="7">
         <v>27</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8">
-        <v>100410</v>
-      </c>
-      <c r="H31" s="10">
-        <v>1</v>
-      </c>
-      <c r="I31" s="13">
-        <v>1</v>
-      </c>
-      <c r="J31" s="8">
-        <v>1</v>
-      </c>
-      <c r="K31" s="8"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-    </row>
-    <row r="32" ht="16.1" spans="2:16">
+        <v>71</v>
+      </c>
+      <c r="E31" s="10">
+        <v>4</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" spans="2:14">
       <c r="B32" s="7">
         <v>28</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8">
-        <v>100501</v>
-      </c>
-      <c r="H32" s="10">
-        <v>1</v>
-      </c>
-      <c r="I32" s="13">
-        <v>1</v>
-      </c>
-      <c r="J32" s="8">
-        <v>1</v>
-      </c>
-      <c r="K32" s="8"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-    </row>
-    <row r="33" ht="16.1" spans="2:16">
+        <v>73</v>
+      </c>
+      <c r="E32" s="10">
+        <v>5</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="11">
+        <v>1</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" spans="2:14">
       <c r="B33" s="7">
         <v>29</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8">
-        <v>100502</v>
-      </c>
-      <c r="H33" s="10">
+        <v>75</v>
+      </c>
+      <c r="E33" s="10">
+        <v>5</v>
+      </c>
+      <c r="F33" s="10">
         <v>2</v>
       </c>
-      <c r="I33" s="13">
+      <c r="G33" s="11">
         <v>2</v>
       </c>
-      <c r="J33" s="8">
-        <v>1</v>
-      </c>
-      <c r="K33" s="8"/>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12"/>
-    </row>
-    <row r="34" ht="16.1" spans="2:16">
+      <c r="H33" s="8">
+        <v>1</v>
+      </c>
+      <c r="I33" s="8"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" spans="2:14">
       <c r="B34" s="7">
         <v>30</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8">
-        <v>100503</v>
-      </c>
-      <c r="H34" s="10">
-        <v>1</v>
-      </c>
-      <c r="I34" s="13">
-        <v>1</v>
-      </c>
-      <c r="J34" s="8">
-        <v>1</v>
-      </c>
-      <c r="K34" s="8"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-    </row>
-    <row r="35" ht="16.1" spans="2:16">
+        <v>77</v>
+      </c>
+      <c r="E34" s="10">
+        <v>5</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+      <c r="G34" s="11">
+        <v>1</v>
+      </c>
+      <c r="H34" s="8">
+        <v>1</v>
+      </c>
+      <c r="I34" s="8"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" spans="2:14">
       <c r="B35" s="7">
         <v>31</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8">
-        <v>100504</v>
-      </c>
-      <c r="H35" s="10">
-        <v>1</v>
-      </c>
-      <c r="I35" s="13">
-        <v>1</v>
-      </c>
-      <c r="J35" s="8">
-        <v>1</v>
-      </c>
-      <c r="K35" s="8"/>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12"/>
-    </row>
-    <row r="36" ht="16.1" spans="2:16">
+        <v>78</v>
+      </c>
+      <c r="E35" s="10">
+        <v>5</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+      <c r="G35" s="11">
+        <v>1</v>
+      </c>
+      <c r="H35" s="8">
+        <v>1</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" spans="2:14">
       <c r="B36" s="7">
         <v>32</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8">
-        <v>100505</v>
-      </c>
-      <c r="H36" s="10">
-        <v>1</v>
-      </c>
-      <c r="I36" s="13">
-        <v>1</v>
-      </c>
-      <c r="J36" s="8">
-        <v>1</v>
-      </c>
-      <c r="K36" s="8"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-    </row>
-    <row r="37" ht="16.1" spans="2:16">
+        <v>79</v>
+      </c>
+      <c r="E36" s="10">
+        <v>5</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="11">
+        <v>1</v>
+      </c>
+      <c r="H36" s="8">
+        <v>1</v>
+      </c>
+      <c r="I36" s="8"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" spans="2:14">
       <c r="B37" s="7">
         <v>33</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8">
-        <v>100601</v>
-      </c>
-      <c r="H37" s="10">
-        <v>1</v>
-      </c>
-      <c r="I37" s="13">
-        <v>1</v>
-      </c>
-      <c r="J37" s="8">
-        <v>1</v>
-      </c>
-      <c r="K37" s="8"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-    </row>
-    <row r="38" ht="16.1" spans="2:16">
+        <v>80</v>
+      </c>
+      <c r="E37" s="10">
+        <v>6</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
+      <c r="H37" s="8">
+        <v>1</v>
+      </c>
+      <c r="I37" s="8"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" spans="2:14">
       <c r="B38" s="7">
         <v>34</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8">
-        <v>100602</v>
-      </c>
-      <c r="H38" s="10">
-        <v>1</v>
-      </c>
-      <c r="I38" s="13">
-        <v>1</v>
-      </c>
-      <c r="J38" s="8">
-        <v>1</v>
-      </c>
-      <c r="K38" s="8"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-    </row>
-    <row r="39" ht="16.1" spans="2:16">
+        <v>81</v>
+      </c>
+      <c r="E38" s="10">
+        <v>6</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="11">
+        <v>1</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" spans="2:14">
       <c r="B39" s="7">
         <v>35</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8">
-        <v>100603</v>
-      </c>
-      <c r="H39" s="10">
+        <v>82</v>
+      </c>
+      <c r="E39" s="10">
+        <v>6</v>
+      </c>
+      <c r="F39" s="10">
         <v>2</v>
       </c>
-      <c r="I39" s="13">
+      <c r="G39" s="11">
         <v>2</v>
       </c>
-      <c r="J39" s="8">
-        <v>1</v>
-      </c>
-      <c r="K39" s="8"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-    </row>
-    <row r="40" ht="16.1" spans="2:16">
+      <c r="H39" s="8">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+    </row>
+    <row r="40" ht="16.5" spans="2:14">
       <c r="B40" s="7">
         <v>36</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8">
-        <v>100604</v>
-      </c>
-      <c r="H40" s="10">
-        <v>1</v>
-      </c>
-      <c r="I40" s="13">
-        <v>1</v>
-      </c>
-      <c r="J40" s="8">
-        <v>1</v>
-      </c>
-      <c r="K40" s="8"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-    </row>
-    <row r="41" ht="16.1" spans="2:16">
+        <v>83</v>
+      </c>
+      <c r="E40" s="10">
+        <v>6</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" spans="2:14">
       <c r="B41" s="7">
         <v>37</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8">
-        <v>100605</v>
-      </c>
-      <c r="H41" s="10">
-        <v>1</v>
-      </c>
-      <c r="I41" s="13">
-        <v>1</v>
-      </c>
-      <c r="J41" s="8">
-        <v>1</v>
-      </c>
-      <c r="K41" s="8"/>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-    </row>
-    <row r="42" ht="16.1" spans="2:16">
+        <v>84</v>
+      </c>
+      <c r="E41" s="10">
+        <v>6</v>
+      </c>
+      <c r="F41" s="10">
+        <v>1</v>
+      </c>
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+      <c r="H41" s="8">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" spans="2:14">
       <c r="B42" s="7">
         <v>38</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8">
-        <v>100606</v>
-      </c>
-      <c r="H42" s="10">
-        <v>1</v>
-      </c>
-      <c r="I42" s="13">
-        <v>1</v>
-      </c>
-      <c r="J42" s="8">
-        <v>1</v>
-      </c>
-      <c r="K42" s="8"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-    </row>
-    <row r="43" ht="16.1" spans="2:16">
-      <c r="B43" s="7">
-        <v>39</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>96</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E42" s="10">
+        <v>6</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
+      <c r="G42" s="11">
+        <v>1</v>
+      </c>
+      <c r="H42" s="8">
+        <v>1</v>
+      </c>
+      <c r="I42" s="8"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" spans="2:14">
+      <c r="B43" s="7"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="10"/>
-      <c r="G43" s="8">
-        <v>100607</v>
-      </c>
-      <c r="H43" s="10">
-        <v>1</v>
-      </c>
-      <c r="I43" s="13">
-        <v>1</v>
-      </c>
-      <c r="J43" s="8">
-        <v>1</v>
-      </c>
-      <c r="K43" s="8"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K6">
+  <conditionalFormatting sqref="I6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/配置表/MapItem.xlsx
+++ b/配置表/MapItem.xlsx
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="5" ht="16.5" spans="2:14">
       <c r="B5" s="7">
-        <v>1</v>
+        <v>100101</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>20</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="6" ht="16.5" spans="2:14">
       <c r="B6" s="7">
-        <v>2</v>
+        <v>100102</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>22</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="7" ht="16.5" spans="2:14">
       <c r="B7" s="7">
-        <v>3</v>
+        <v>100103</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>24</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="8" ht="16.5" spans="2:14">
       <c r="B8" s="7">
-        <v>4</v>
+        <v>100104</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>26</v>
@@ -1824,7 +1824,7 @@
     </row>
     <row r="9" ht="16.5" spans="2:14">
       <c r="B9" s="7">
-        <v>5</v>
+        <v>100105</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>28</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="10" ht="16.5" spans="2:14">
       <c r="B10" s="7">
-        <v>6</v>
+        <v>100201</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>30</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="11" ht="16.5" spans="2:14">
       <c r="B11" s="7">
-        <v>7</v>
+        <v>100202</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>32</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="12" ht="16.5" spans="2:14">
       <c r="B12" s="7">
-        <v>8</v>
+        <v>100203</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>34</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="13" ht="16.5" spans="2:14">
       <c r="B13" s="7">
-        <v>9</v>
+        <v>100301</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>36</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="14" ht="16.5" spans="2:14">
       <c r="B14" s="7">
-        <v>10</v>
+        <v>100302</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>38</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="15" ht="16.5" spans="2:14">
       <c r="B15" s="7">
-        <v>11</v>
+        <v>100303</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>40</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="16" ht="16.5" spans="2:14">
       <c r="B16" s="7">
-        <v>12</v>
+        <v>100304</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>42</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="17" ht="16.5" spans="2:14">
       <c r="B17" s="7">
-        <v>13</v>
+        <v>100305</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>44</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="18" ht="16.5" spans="2:14">
       <c r="B18" s="7">
-        <v>14</v>
+        <v>100306</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>46</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="19" ht="16.5" spans="2:14">
       <c r="B19" s="7">
-        <v>15</v>
+        <v>100307</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>47</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="20" ht="16.5" spans="2:14">
       <c r="B20" s="7">
-        <v>16</v>
+        <v>100308</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>48</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="21" ht="16.5" spans="2:14">
       <c r="B21" s="7">
-        <v>17</v>
+        <v>100309</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>50</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="22" ht="16.5" spans="2:14">
       <c r="B22" s="7">
-        <v>18</v>
+        <v>100401</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>52</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="23" ht="16.5" spans="2:14">
       <c r="B23" s="7">
-        <v>19</v>
+        <v>100402</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>54</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="24" ht="16.5" spans="2:14">
       <c r="B24" s="7">
-        <v>20</v>
+        <v>100403</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>56</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="25" ht="16.5" spans="2:14">
       <c r="B25" s="7">
-        <v>21</v>
+        <v>100404</v>
       </c>
       <c r="C25" s="7" t="s">
         <v>58</v>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="26" ht="16.5" spans="2:14">
       <c r="B26" s="7">
-        <v>22</v>
+        <v>100405</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>60</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="27" ht="16.5" spans="2:14">
       <c r="B27" s="7">
-        <v>23</v>
+        <v>100406</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>62</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="28" ht="16.5" spans="2:14">
       <c r="B28" s="7">
-        <v>24</v>
+        <v>100407</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>64</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="29" ht="16.5" spans="2:14">
       <c r="B29" s="7">
-        <v>25</v>
+        <v>100408</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>66</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="30" ht="16.5" spans="2:14">
       <c r="B30" s="7">
-        <v>26</v>
+        <v>100409</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>68</v>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="31" ht="16.5" spans="2:14">
       <c r="B31" s="7">
-        <v>27</v>
+        <v>100410</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>70</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="32" ht="16.5" spans="2:14">
       <c r="B32" s="7">
-        <v>28</v>
+        <v>100501</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>72</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="33" ht="16.5" spans="2:14">
       <c r="B33" s="7">
-        <v>29</v>
+        <v>100502</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>74</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="34" ht="16.5" spans="2:14">
       <c r="B34" s="7">
-        <v>30</v>
+        <v>100503</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>76</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="35" ht="16.5" spans="2:14">
       <c r="B35" s="7">
-        <v>31</v>
+        <v>100504</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>78</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="36" ht="16.5" spans="2:14">
       <c r="B36" s="7">
-        <v>32</v>
+        <v>100505</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>79</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="37" ht="16.5" spans="2:14">
       <c r="B37" s="7">
-        <v>33</v>
+        <v>100601</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>80</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="38" ht="16.5" spans="2:14">
       <c r="B38" s="7">
-        <v>34</v>
+        <v>100602</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>81</v>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="39" ht="16.5" spans="2:14">
       <c r="B39" s="7">
-        <v>35</v>
+        <v>100601</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>82</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="40" ht="16.5" spans="2:14">
       <c r="B40" s="7">
-        <v>36</v>
+        <v>100602</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>83</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="41" ht="16.5" spans="2:14">
       <c r="B41" s="7">
-        <v>37</v>
+        <v>100603</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>84</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="42" ht="16.5" spans="2:14">
       <c r="B42" s="7">
-        <v>38</v>
+        <v>100604</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>85</v>

--- a/配置表/MapItem.xlsx
+++ b/配置表/MapItem.xlsx
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -2605,7 +2605,7 @@
     </row>
     <row r="39" ht="16.5" spans="2:14">
       <c r="B39" s="7">
-        <v>100601</v>
+        <v>100603</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>82</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="40" ht="16.5" spans="2:14">
       <c r="B40" s="7">
-        <v>100602</v>
+        <v>100604</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>83</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="41" ht="16.5" spans="2:14">
       <c r="B41" s="7">
-        <v>100603</v>
+        <v>100605</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>84</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="42" ht="16.5" spans="2:14">
       <c r="B42" s="7">
-        <v>100604</v>
+        <v>100606</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>85</v>

--- a/配置表/MapItem.xlsx
+++ b/配置表/MapItem.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="88">
   <si>
     <t>##var</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>isRuleTile</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>sale</t>
   </si>
   <si>
     <t>##type</t>
@@ -1015,7 +1021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1050,6 +1056,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1592,7 +1601,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1630,44 +1639,52 @@
       <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="1"/>
       <c r="L1" s="4"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="16.5" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="17.1" customHeight="1" spans="1:13">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1684,28 +1701,28 @@
     </row>
     <row r="4" s="2" customFormat="1" ht="16.5" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -1719,10 +1736,10 @@
         <v>100101</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -1736,20 +1753,24 @@
       <c r="H5" s="8">
         <v>1</v>
       </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="I5" s="13">
+        <v>600</v>
+      </c>
+      <c r="J5" s="13">
+        <v>300</v>
+      </c>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
     </row>
     <row r="6" ht="16.5" spans="2:14">
       <c r="B6" s="7">
         <v>100102</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6" s="8">
         <v>1</v>
@@ -1763,20 +1784,24 @@
       <c r="H6" s="8">
         <v>1</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="I6" s="13">
+        <v>900</v>
+      </c>
+      <c r="J6" s="13">
+        <v>450</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
     <row r="7" ht="16.5" spans="2:14">
       <c r="B7" s="7">
         <v>100103</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
@@ -1790,20 +1815,24 @@
       <c r="H7" s="8">
         <v>1</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="I7" s="13">
+        <v>1200</v>
+      </c>
+      <c r="J7" s="13">
+        <v>600</v>
+      </c>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" ht="16.5" spans="2:14">
       <c r="B8" s="7">
         <v>100104</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="8">
         <v>1</v>
@@ -1817,20 +1846,24 @@
       <c r="H8" s="8">
         <v>1</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="I8" s="13">
+        <v>1100</v>
+      </c>
+      <c r="J8" s="13">
+        <v>550</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
     </row>
     <row r="9" ht="16.5" spans="2:14">
       <c r="B9" s="7">
         <v>100105</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E9" s="8">
         <v>1</v>
@@ -1844,20 +1877,24 @@
       <c r="H9" s="8">
         <v>1</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="I9" s="13">
+        <v>2000</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" ht="16.5" spans="2:14">
       <c r="B10" s="7">
         <v>100201</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E10" s="10">
         <v>2</v>
@@ -1871,19 +1908,24 @@
       <c r="H10" s="8">
         <v>1</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="I10" s="13">
+        <v>60</v>
+      </c>
+      <c r="J10" s="13">
+        <v>30</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
     </row>
     <row r="11" ht="16.5" spans="2:14">
       <c r="B11" s="7">
         <v>100202</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11" s="10">
         <v>2</v>
@@ -1897,19 +1939,24 @@
       <c r="H11" s="8">
         <v>1</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="I11" s="13">
+        <v>100</v>
+      </c>
+      <c r="J11" s="13">
+        <v>50</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
     </row>
     <row r="12" ht="16.5" spans="2:14">
       <c r="B12" s="7">
         <v>100203</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E12" s="10">
         <v>2</v>
@@ -1923,19 +1970,24 @@
       <c r="H12" s="8">
         <v>1</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="I12" s="13">
+        <v>300</v>
+      </c>
+      <c r="J12" s="13">
+        <v>150</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
     </row>
     <row r="13" ht="16.5" spans="2:14">
       <c r="B13" s="7">
         <v>100301</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" s="10">
         <v>3</v>
@@ -1949,19 +2001,24 @@
       <c r="H13" s="8">
         <v>1</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="I13" s="13">
+        <v>50</v>
+      </c>
+      <c r="J13" s="13">
+        <v>25</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
     </row>
     <row r="14" ht="16.5" spans="2:14">
       <c r="B14" s="7">
         <v>100302</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E14" s="10">
         <v>3</v>
@@ -1975,19 +2032,24 @@
       <c r="H14" s="8">
         <v>1</v>
       </c>
-      <c r="I14" s="8"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
+      <c r="I14" s="13">
+        <v>30</v>
+      </c>
+      <c r="J14" s="13">
+        <v>15</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
     </row>
     <row r="15" ht="16.5" spans="2:14">
       <c r="B15" s="7">
         <v>100303</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E15" s="10">
         <v>3</v>
@@ -2001,19 +2063,24 @@
       <c r="H15" s="8">
         <v>1</v>
       </c>
-      <c r="I15" s="8"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
+      <c r="I15" s="13">
+        <v>50</v>
+      </c>
+      <c r="J15" s="13">
+        <v>25</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
     </row>
     <row r="16" ht="16.5" spans="2:14">
       <c r="B16" s="7">
         <v>100304</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" s="10">
         <v>3</v>
@@ -2027,19 +2094,24 @@
       <c r="H16" s="8">
         <v>1</v>
       </c>
-      <c r="I16" s="8"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
+      <c r="I16" s="13">
+        <v>50</v>
+      </c>
+      <c r="J16" s="13">
+        <v>25</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
     </row>
     <row r="17" ht="16.5" spans="2:14">
       <c r="B17" s="7">
         <v>100305</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E17" s="10">
         <v>3</v>
@@ -2053,19 +2125,24 @@
       <c r="H17" s="8">
         <v>1</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
+      <c r="I17" s="13">
+        <v>70</v>
+      </c>
+      <c r="J17" s="13">
+        <v>35</v>
+      </c>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
     </row>
     <row r="18" ht="16.5" spans="2:14">
       <c r="B18" s="7">
         <v>100306</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="10">
         <v>3</v>
@@ -2079,19 +2156,24 @@
       <c r="H18" s="8">
         <v>1</v>
       </c>
-      <c r="I18" s="8"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
+      <c r="I18" s="13">
+        <v>50</v>
+      </c>
+      <c r="J18" s="13">
+        <v>25</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
     </row>
     <row r="19" ht="16.5" spans="2:14">
       <c r="B19" s="7">
         <v>100307</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" s="10">
         <v>3</v>
@@ -2105,19 +2187,24 @@
       <c r="H19" s="8">
         <v>1</v>
       </c>
-      <c r="I19" s="8"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
+      <c r="I19" s="13">
+        <v>100</v>
+      </c>
+      <c r="J19" s="13">
+        <v>50</v>
+      </c>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
     </row>
     <row r="20" ht="16.5" spans="2:14">
       <c r="B20" s="7">
         <v>100308</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="10">
         <v>3</v>
@@ -2131,19 +2218,24 @@
       <c r="H20" s="8">
         <v>1</v>
       </c>
-      <c r="I20" s="8"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
+      <c r="I20" s="13">
+        <v>100</v>
+      </c>
+      <c r="J20" s="13">
+        <v>50</v>
+      </c>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
     </row>
     <row r="21" ht="16.5" spans="2:14">
       <c r="B21" s="7">
         <v>100309</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E21" s="10">
         <v>3</v>
@@ -2157,19 +2249,24 @@
       <c r="H21" s="8">
         <v>1</v>
       </c>
-      <c r="I21" s="8"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
+      <c r="I21" s="13">
+        <v>120</v>
+      </c>
+      <c r="J21" s="13">
+        <v>60</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
     </row>
     <row r="22" ht="16.5" spans="2:14">
       <c r="B22" s="7">
         <v>100401</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E22" s="10">
         <v>4</v>
@@ -2183,19 +2280,24 @@
       <c r="H22" s="8">
         <v>1</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
+      <c r="I22" s="13">
+        <v>30</v>
+      </c>
+      <c r="J22" s="13">
+        <v>15</v>
+      </c>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
     </row>
     <row r="23" ht="16.5" spans="2:14">
       <c r="B23" s="7">
         <v>100402</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E23" s="10">
         <v>4</v>
@@ -2209,19 +2311,24 @@
       <c r="H23" s="8">
         <v>1</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
+      <c r="I23" s="13">
+        <v>50</v>
+      </c>
+      <c r="J23" s="13">
+        <v>25</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" ht="16.5" spans="2:14">
       <c r="B24" s="7">
         <v>100403</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24" s="10">
         <v>4</v>
@@ -2235,19 +2342,24 @@
       <c r="H24" s="8">
         <v>1</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
+      <c r="I24" s="13">
+        <v>30</v>
+      </c>
+      <c r="J24" s="13">
+        <v>15</v>
+      </c>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="25" ht="16.5" spans="2:14">
       <c r="B25" s="7">
         <v>100404</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E25" s="10">
         <v>4</v>
@@ -2261,19 +2373,24 @@
       <c r="H25" s="8">
         <v>1</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
+      <c r="I25" s="13">
+        <v>100</v>
+      </c>
+      <c r="J25" s="13">
+        <v>50</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" ht="16.5" spans="2:14">
       <c r="B26" s="7">
         <v>100405</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E26" s="10">
         <v>4</v>
@@ -2287,19 +2404,24 @@
       <c r="H26" s="8">
         <v>1</v>
       </c>
-      <c r="I26" s="8"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
+      <c r="I26" s="13">
+        <v>60</v>
+      </c>
+      <c r="J26" s="13">
+        <v>30</v>
+      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
     </row>
     <row r="27" ht="16.5" spans="2:14">
       <c r="B27" s="7">
         <v>100406</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E27" s="10">
         <v>4</v>
@@ -2313,19 +2435,24 @@
       <c r="H27" s="8">
         <v>1</v>
       </c>
-      <c r="I27" s="8"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
+      <c r="I27" s="13">
+        <v>70</v>
+      </c>
+      <c r="J27" s="13">
+        <v>35</v>
+      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
     </row>
     <row r="28" ht="16.5" spans="2:14">
       <c r="B28" s="7">
         <v>100407</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E28" s="10">
         <v>4</v>
@@ -2339,19 +2466,24 @@
       <c r="H28" s="8">
         <v>1</v>
       </c>
-      <c r="I28" s="8"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
+      <c r="I28" s="13">
+        <v>60</v>
+      </c>
+      <c r="J28" s="13">
+        <v>30</v>
+      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
     </row>
     <row r="29" ht="16.5" spans="2:14">
       <c r="B29" s="7">
         <v>100408</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E29" s="10">
         <v>4</v>
@@ -2365,19 +2497,24 @@
       <c r="H29" s="8">
         <v>1</v>
       </c>
-      <c r="I29" s="8"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
+      <c r="I29" s="13">
+        <v>100</v>
+      </c>
+      <c r="J29" s="13">
+        <v>50</v>
+      </c>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
     </row>
     <row r="30" ht="16.5" spans="2:14">
       <c r="B30" s="7">
         <v>100409</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E30" s="10">
         <v>4</v>
@@ -2391,19 +2528,24 @@
       <c r="H30" s="8">
         <v>1</v>
       </c>
-      <c r="I30" s="8"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
+      <c r="I30" s="13">
+        <v>40</v>
+      </c>
+      <c r="J30" s="13">
+        <v>20</v>
+      </c>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
     </row>
     <row r="31" ht="16.5" spans="2:14">
       <c r="B31" s="7">
         <v>100410</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E31" s="10">
         <v>4</v>
@@ -2417,19 +2559,24 @@
       <c r="H31" s="8">
         <v>1</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
+      <c r="I31" s="13">
+        <v>100</v>
+      </c>
+      <c r="J31" s="13">
+        <v>50</v>
+      </c>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
     </row>
     <row r="32" ht="16.5" spans="2:14">
       <c r="B32" s="7">
         <v>100501</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E32" s="10">
         <v>5</v>
@@ -2443,19 +2590,24 @@
       <c r="H32" s="8">
         <v>1</v>
       </c>
-      <c r="I32" s="8"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
+      <c r="I32" s="13">
+        <v>200</v>
+      </c>
+      <c r="J32" s="13">
+        <v>100</v>
+      </c>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" ht="16.5" spans="2:14">
       <c r="B33" s="7">
         <v>100502</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E33" s="10">
         <v>5</v>
@@ -2469,19 +2621,24 @@
       <c r="H33" s="8">
         <v>1</v>
       </c>
-      <c r="I33" s="8"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
+      <c r="I33" s="13">
+        <v>1300</v>
+      </c>
+      <c r="J33" s="13">
+        <v>650</v>
+      </c>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
     </row>
     <row r="34" ht="16.5" spans="2:14">
       <c r="B34" s="7">
         <v>100503</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E34" s="10">
         <v>5</v>
@@ -2495,19 +2652,24 @@
       <c r="H34" s="8">
         <v>1</v>
       </c>
-      <c r="I34" s="8"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
+      <c r="I34" s="13">
+        <v>150</v>
+      </c>
+      <c r="J34" s="13">
+        <v>75</v>
+      </c>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
     </row>
     <row r="35" ht="16.5" spans="2:14">
       <c r="B35" s="7">
         <v>100504</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E35" s="10">
         <v>5</v>
@@ -2521,19 +2683,24 @@
       <c r="H35" s="8">
         <v>1</v>
       </c>
-      <c r="I35" s="8"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
+      <c r="I35" s="13">
+        <v>200</v>
+      </c>
+      <c r="J35" s="13">
+        <v>100</v>
+      </c>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
     </row>
     <row r="36" ht="16.5" spans="2:14">
       <c r="B36" s="7">
         <v>100505</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="10">
         <v>5</v>
@@ -2547,19 +2714,24 @@
       <c r="H36" s="8">
         <v>1</v>
       </c>
-      <c r="I36" s="8"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
+      <c r="I36" s="13">
+        <v>150</v>
+      </c>
+      <c r="J36" s="13">
+        <v>75</v>
+      </c>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" ht="16.5" spans="2:14">
       <c r="B37" s="7">
         <v>100601</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E37" s="10">
         <v>6</v>
@@ -2573,19 +2745,24 @@
       <c r="H37" s="8">
         <v>1</v>
       </c>
-      <c r="I37" s="8"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
+      <c r="I37" s="13">
+        <v>30</v>
+      </c>
+      <c r="J37" s="13">
+        <v>15</v>
+      </c>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
     <row r="38" ht="16.5" spans="2:14">
       <c r="B38" s="7">
         <v>100602</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E38" s="10">
         <v>6</v>
@@ -2599,19 +2776,24 @@
       <c r="H38" s="8">
         <v>1</v>
       </c>
-      <c r="I38" s="8"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
+      <c r="I38" s="13">
+        <v>50</v>
+      </c>
+      <c r="J38" s="13">
+        <v>25</v>
+      </c>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
     </row>
     <row r="39" ht="16.5" spans="2:14">
       <c r="B39" s="7">
         <v>100603</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="10">
         <v>6</v>
@@ -2625,19 +2807,24 @@
       <c r="H39" s="8">
         <v>1</v>
       </c>
-      <c r="I39" s="8"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
+      <c r="I39" s="13">
+        <v>350</v>
+      </c>
+      <c r="J39" s="13">
+        <v>175</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
     </row>
     <row r="40" ht="16.5" spans="2:14">
       <c r="B40" s="7">
         <v>100604</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="10">
         <v>6</v>
@@ -2651,19 +2838,24 @@
       <c r="H40" s="8">
         <v>1</v>
       </c>
-      <c r="I40" s="8"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13"/>
+      <c r="I40" s="13">
+        <v>200</v>
+      </c>
+      <c r="J40" s="13">
+        <v>100</v>
+      </c>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
     </row>
     <row r="41" ht="16.5" spans="2:14">
       <c r="B41" s="7">
         <v>100605</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E41" s="10">
         <v>6</v>
@@ -2677,19 +2869,24 @@
       <c r="H41" s="8">
         <v>1</v>
       </c>
-      <c r="I41" s="8"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="13"/>
+      <c r="I41" s="13">
+        <v>100</v>
+      </c>
+      <c r="J41" s="13">
+        <v>50</v>
+      </c>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
     </row>
     <row r="42" ht="16.5" spans="2:14">
       <c r="B42" s="7">
         <v>100606</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E42" s="10">
         <v>6</v>
@@ -2703,9 +2900,14 @@
       <c r="H42" s="8">
         <v>1</v>
       </c>
-      <c r="I42" s="8"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="13"/>
+      <c r="I42" s="13">
+        <v>100</v>
+      </c>
+      <c r="J42" s="13">
+        <v>50</v>
+      </c>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
     </row>
     <row r="43" ht="16.5" spans="2:14">
       <c r="B43" s="7"/>
@@ -2716,8 +2918,8 @@
       <c r="G43" s="11"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I6">

--- a/配置表/MapItem.xlsx
+++ b/配置表/MapItem.xlsx
@@ -1021,7 +1021,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1056,9 +1056,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1601,7 +1598,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
@@ -1751,16 +1748,16 @@
         <v>2</v>
       </c>
       <c r="H5" s="8">
-        <v>1</v>
-      </c>
-      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10">
         <v>600</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="10">
         <v>300</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" ht="16.5" spans="2:14">
       <c r="B6" s="7">
@@ -1782,16 +1779,16 @@
         <v>3</v>
       </c>
       <c r="H6" s="8">
-        <v>1</v>
-      </c>
-      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
         <v>900</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="10">
         <v>450</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" ht="16.5" spans="2:14">
       <c r="B7" s="7">
@@ -1813,16 +1810,16 @@
         <v>3</v>
       </c>
       <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
         <v>1200</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="10">
         <v>600</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" ht="16.5" spans="2:14">
       <c r="B8" s="7">
@@ -1844,16 +1841,16 @@
         <v>3</v>
       </c>
       <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10">
         <v>1100</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="10">
         <v>550</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" ht="16.5" spans="2:14">
       <c r="B9" s="7">
@@ -1875,16 +1872,16 @@
         <v>3</v>
       </c>
       <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
         <v>2000</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="10">
         <v>1000</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" ht="16.5" spans="2:14">
       <c r="B10" s="7">
@@ -1906,16 +1903,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
         <v>60</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="10">
         <v>30</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
     <row r="11" ht="16.5" spans="2:14">
       <c r="B11" s="7">
@@ -1937,16 +1934,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
         <v>100</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="10">
         <v>50</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
     <row r="12" ht="16.5" spans="2:14">
       <c r="B12" s="7">
@@ -1968,16 +1965,16 @@
         <v>1</v>
       </c>
       <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10">
         <v>300</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="10">
         <v>150</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
     <row r="13" ht="16.5" spans="2:14">
       <c r="B13" s="7">
@@ -1999,16 +1996,16 @@
         <v>1</v>
       </c>
       <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
         <v>50</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="10">
         <v>25</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
     <row r="14" ht="16.5" spans="2:14">
       <c r="B14" s="7">
@@ -2030,16 +2027,16 @@
         <v>1</v>
       </c>
       <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
         <v>30</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="10">
         <v>15</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" ht="16.5" spans="2:14">
       <c r="B15" s="7">
@@ -2061,16 +2058,16 @@
         <v>1</v>
       </c>
       <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
         <v>50</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="10">
         <v>25</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
     </row>
     <row r="16" ht="16.5" spans="2:14">
       <c r="B16" s="7">
@@ -2092,16 +2089,16 @@
         <v>1</v>
       </c>
       <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="10">
         <v>50</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="10">
         <v>25</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
     </row>
     <row r="17" ht="16.5" spans="2:14">
       <c r="B17" s="7">
@@ -2123,16 +2120,16 @@
         <v>1</v>
       </c>
       <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
         <v>70</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="10">
         <v>35</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
     </row>
     <row r="18" ht="16.5" spans="2:14">
       <c r="B18" s="7">
@@ -2154,16 +2151,16 @@
         <v>1</v>
       </c>
       <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10">
         <v>50</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="10">
         <v>25</v>
       </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
     </row>
     <row r="19" ht="16.5" spans="2:14">
       <c r="B19" s="7">
@@ -2185,16 +2182,16 @@
         <v>1</v>
       </c>
       <c r="H19" s="8">
-        <v>1</v>
-      </c>
-      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10">
         <v>100</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="10">
         <v>50</v>
       </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
     </row>
     <row r="20" ht="16.5" spans="2:14">
       <c r="B20" s="7">
@@ -2216,16 +2213,16 @@
         <v>1</v>
       </c>
       <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
         <v>100</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="10">
         <v>50</v>
       </c>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
     </row>
     <row r="21" ht="16.5" spans="2:14">
       <c r="B21" s="7">
@@ -2247,16 +2244,16 @@
         <v>1</v>
       </c>
       <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10">
         <v>120</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="10">
         <v>60</v>
       </c>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
     </row>
     <row r="22" ht="16.5" spans="2:14">
       <c r="B22" s="7">
@@ -2278,16 +2275,16 @@
         <v>1</v>
       </c>
       <c r="H22" s="8">
-        <v>1</v>
-      </c>
-      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10">
         <v>30</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="10">
         <v>15</v>
       </c>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
     </row>
     <row r="23" ht="16.5" spans="2:14">
       <c r="B23" s="7">
@@ -2309,16 +2306,16 @@
         <v>1</v>
       </c>
       <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="10">
         <v>50</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="10">
         <v>25</v>
       </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
     </row>
     <row r="24" ht="16.5" spans="2:14">
       <c r="B24" s="7">
@@ -2340,16 +2337,16 @@
         <v>1</v>
       </c>
       <c r="H24" s="8">
-        <v>1</v>
-      </c>
-      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="10">
         <v>30</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="10">
         <v>15</v>
       </c>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
     </row>
     <row r="25" ht="16.5" spans="2:14">
       <c r="B25" s="7">
@@ -2371,16 +2368,16 @@
         <v>1</v>
       </c>
       <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10">
         <v>100</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="10">
         <v>50</v>
       </c>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
     </row>
     <row r="26" ht="16.5" spans="2:14">
       <c r="B26" s="7">
@@ -2402,16 +2399,16 @@
         <v>1</v>
       </c>
       <c r="H26" s="8">
-        <v>1</v>
-      </c>
-      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10">
         <v>60</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="10">
         <v>30</v>
       </c>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
     </row>
     <row r="27" ht="16.5" spans="2:14">
       <c r="B27" s="7">
@@ -2433,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="H27" s="8">
-        <v>1</v>
-      </c>
-      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10">
         <v>70</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="10">
         <v>35</v>
       </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
     </row>
     <row r="28" ht="16.5" spans="2:14">
       <c r="B28" s="7">
@@ -2464,16 +2461,16 @@
         <v>1</v>
       </c>
       <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10">
         <v>60</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="10">
         <v>30</v>
       </c>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
     </row>
     <row r="29" ht="16.5" spans="2:14">
       <c r="B29" s="7">
@@ -2495,16 +2492,16 @@
         <v>1</v>
       </c>
       <c r="H29" s="8">
-        <v>1</v>
-      </c>
-      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10">
         <v>100</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="10">
         <v>50</v>
       </c>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
     </row>
     <row r="30" ht="16.5" spans="2:14">
       <c r="B30" s="7">
@@ -2526,16 +2523,16 @@
         <v>1</v>
       </c>
       <c r="H30" s="8">
-        <v>1</v>
-      </c>
-      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="10">
         <v>40</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="10">
         <v>20</v>
       </c>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
     </row>
     <row r="31" ht="16.5" spans="2:14">
       <c r="B31" s="7">
@@ -2557,16 +2554,16 @@
         <v>1</v>
       </c>
       <c r="H31" s="8">
-        <v>1</v>
-      </c>
-      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="10">
         <v>100</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="10">
         <v>50</v>
       </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
     </row>
     <row r="32" ht="16.5" spans="2:14">
       <c r="B32" s="7">
@@ -2588,16 +2585,16 @@
         <v>1</v>
       </c>
       <c r="H32" s="8">
-        <v>1</v>
-      </c>
-      <c r="I32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="10">
         <v>200</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="10">
         <v>100</v>
       </c>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
     </row>
     <row r="33" ht="16.5" spans="2:14">
       <c r="B33" s="7">
@@ -2619,16 +2616,16 @@
         <v>2</v>
       </c>
       <c r="H33" s="8">
-        <v>1</v>
-      </c>
-      <c r="I33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="10">
         <v>1300</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="10">
         <v>650</v>
       </c>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
     </row>
     <row r="34" ht="16.5" spans="2:14">
       <c r="B34" s="7">
@@ -2650,16 +2647,16 @@
         <v>1</v>
       </c>
       <c r="H34" s="8">
-        <v>1</v>
-      </c>
-      <c r="I34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
         <v>150</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="10">
         <v>75</v>
       </c>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
     </row>
     <row r="35" ht="16.5" spans="2:14">
       <c r="B35" s="7">
@@ -2681,16 +2678,16 @@
         <v>1</v>
       </c>
       <c r="H35" s="8">
-        <v>1</v>
-      </c>
-      <c r="I35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
         <v>200</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="10">
         <v>100</v>
       </c>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
     </row>
     <row r="36" ht="16.5" spans="2:14">
       <c r="B36" s="7">
@@ -2712,16 +2709,16 @@
         <v>1</v>
       </c>
       <c r="H36" s="8">
-        <v>1</v>
-      </c>
-      <c r="I36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="10">
         <v>150</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="10">
         <v>75</v>
       </c>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
     </row>
     <row r="37" ht="16.5" spans="2:14">
       <c r="B37" s="7">
@@ -2743,16 +2740,16 @@
         <v>1</v>
       </c>
       <c r="H37" s="8">
-        <v>1</v>
-      </c>
-      <c r="I37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="10">
         <v>30</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="10">
         <v>15</v>
       </c>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
     </row>
     <row r="38" ht="16.5" spans="2:14">
       <c r="B38" s="7">
@@ -2774,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="H38" s="8">
-        <v>1</v>
-      </c>
-      <c r="I38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="10">
         <v>50</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="10">
         <v>25</v>
       </c>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
     </row>
     <row r="39" ht="16.5" spans="2:14">
       <c r="B39" s="7">
@@ -2805,16 +2802,16 @@
         <v>2</v>
       </c>
       <c r="H39" s="8">
-        <v>1</v>
-      </c>
-      <c r="I39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10">
         <v>350</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="10">
         <v>175</v>
       </c>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
     </row>
     <row r="40" ht="16.5" spans="2:14">
       <c r="B40" s="7">
@@ -2836,16 +2833,16 @@
         <v>1</v>
       </c>
       <c r="H40" s="8">
-        <v>1</v>
-      </c>
-      <c r="I40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="10">
         <v>200</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="10">
         <v>100</v>
       </c>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
     </row>
     <row r="41" ht="16.5" spans="2:14">
       <c r="B41" s="7">
@@ -2867,16 +2864,16 @@
         <v>1</v>
       </c>
       <c r="H41" s="8">
-        <v>1</v>
-      </c>
-      <c r="I41" s="13">
+        <v>0</v>
+      </c>
+      <c r="I41" s="10">
         <v>100</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="10">
         <v>50</v>
       </c>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
     </row>
     <row r="42" ht="16.5" spans="2:14">
       <c r="B42" s="7">
@@ -2898,16 +2895,16 @@
         <v>1</v>
       </c>
       <c r="H42" s="8">
-        <v>1</v>
-      </c>
-      <c r="I42" s="13">
+        <v>0</v>
+      </c>
+      <c r="I42" s="10">
         <v>100</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="10">
         <v>50</v>
       </c>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
     </row>
     <row r="43" ht="16.5" spans="2:14">
       <c r="B43" s="7"/>
@@ -2918,8 +2915,8 @@
       <c r="G43" s="11"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I6">
